--- a/BACKEND/aantik/Datos basicos-formato.xlsx
+++ b/BACKEND/aantik/Datos basicos-formato.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TUCHYS\Documents\workspace-spring-tool-suite-4-4.11.0.RELEASE\aantik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE8D5A8-A7C8-4B46-88AB-98A5EA2E5F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5B157B-6189-4682-B4A7-25A66CE7C1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{7662B8BB-F145-4BD1-9719-83B07E3F733A}"/>
+    <workbookView minimized="1" xWindow="32595" yWindow="3960" windowWidth="17280" windowHeight="8970" activeTab="2" xr2:uid="{7662B8BB-F145-4BD1-9719-83B07E3F733A}"/>
   </bookViews>
   <sheets>
     <sheet name="datos organizacion social" sheetId="1" r:id="rId1"/>
     <sheet name="Datos emprendimiento" sheetId="3" r:id="rId2"/>
-    <sheet name="emprendimiento fromato viejo" sheetId="5" r:id="rId3"/>
-    <sheet name="datos profesor" sheetId="4" r:id="rId4"/>
+    <sheet name="datos profesor" sheetId="4" r:id="rId3"/>
+    <sheet name="emprendimiento fromato viejo" sheetId="5" r:id="rId4"/>
     <sheet name="Datos" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
@@ -7035,11 +7035,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51B2B20A-C45E-4773-B4F9-D671A1D7B8D6}">
   <dimension ref="B1:AF98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Z3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA3" sqref="AA3"/>
+      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10969,11 +10969,1378 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497AB5D1-7E73-45CA-AA6F-2BD3A01FFF56}">
+  <dimension ref="B1:V47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="25.5546875" customWidth="1"/>
+    <col min="9" max="9" width="8.44140625" customWidth="1"/>
+    <col min="10" max="12" width="21.5546875" customWidth="1"/>
+    <col min="13" max="14" width="15.109375" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" customWidth="1"/>
+    <col min="16" max="16" width="23.33203125" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" customWidth="1"/>
+    <col min="19" max="19" width="18.5546875" customWidth="1"/>
+    <col min="20" max="20" width="19.44140625" customWidth="1"/>
+    <col min="21" max="21" width="18.44140625" customWidth="1"/>
+    <col min="22" max="22" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:22" ht="18" x14ac:dyDescent="0.35">
+      <c r="B1" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="34"/>
+    </row>
+    <row r="2" spans="2:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3212036711</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B5" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3212036711</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B6" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B7" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B8" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3005771715</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+    </row>
+    <row r="36" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+    </row>
+    <row r="38" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="O1:V1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H3" r:id="rId1" xr:uid="{90FE3D0A-B8B1-4C9D-8E9B-D9144E7EB971}"/>
+    <hyperlink ref="H5" r:id="rId2" xr:uid="{8EC427D5-2CA7-4CDF-9F77-B1DEFEBB8367}"/>
+    <hyperlink ref="H8" r:id="rId3" xr:uid="{D317A997-1216-4BF3-A77E-301A96DB4800}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B3867948-BF52-48AA-81C4-3523C0DE80B8}">
+          <x14:formula1>
+            <xm:f>Datos!$K$3:$K$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>F3:F47</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E82A8886-A416-4228-B46B-90C40CEA1B4B}">
+          <x14:formula1>
+            <xm:f>Datos!$I$3:$I$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>P3:P47 L3:L47</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{35602AF9-D5FB-4285-81E5-DC80BB10AAED}">
+          <x14:formula1>
+            <xm:f>Datos!$E$3:$E$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>U3:V47 M3:M47</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{283202D1-C78B-4C17-9CCD-8D9E0621A27A}">
+          <x14:formula1>
+            <xm:f>Datos!$D$3:$D$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>N3:N47</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FCFF70CB-04DE-45E7-BA1E-E3F177CEA76E}">
+          <x14:formula1>
+            <xm:f>Datos!$B$3:$B$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>O3:O47</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A8D3B83F-CDFE-480C-8E57-50F4BDEC4912}">
+          <x14:formula1>
+            <xm:f>Datos!$C$3:$C$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>Q3:Q47</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CA863D4C-1A2F-4B36-97A9-40096E92B6F4}">
+          <x14:formula1>
+            <xm:f>Datos!$H$3:$H$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>R3:R47</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3134F4-F4C2-4170-96C2-55EFDB9690DE}">
   <dimension ref="B1:AK98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15615,1373 +16982,6 @@
             <xm:f>Datos!$G$3:$G$5</xm:f>
           </x14:formula1>
           <xm:sqref>AF3:AF56</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497AB5D1-7E73-45CA-AA6F-2BD3A01FFF56}">
-  <dimension ref="B1:V47"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" customWidth="1"/>
-    <col min="8" max="8" width="25.5546875" customWidth="1"/>
-    <col min="9" max="9" width="8.44140625" customWidth="1"/>
-    <col min="10" max="12" width="21.5546875" customWidth="1"/>
-    <col min="13" max="14" width="15.109375" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" customWidth="1"/>
-    <col min="16" max="16" width="23.33203125" customWidth="1"/>
-    <col min="17" max="17" width="12.6640625" customWidth="1"/>
-    <col min="18" max="18" width="14.6640625" customWidth="1"/>
-    <col min="19" max="19" width="18.5546875" customWidth="1"/>
-    <col min="20" max="20" width="19.44140625" customWidth="1"/>
-    <col min="21" max="21" width="18.44140625" customWidth="1"/>
-    <col min="22" max="22" width="14.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:22" ht="18" x14ac:dyDescent="0.35">
-      <c r="B1" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="34"/>
-    </row>
-    <row r="2" spans="2:22" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G3" s="1">
-        <v>3212036711</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-    </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B5" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="G5" s="1">
-        <v>3212036711</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B6" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-    </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B7" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-    </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B8" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G8" s="1">
-        <v>3005771715</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-    </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-    </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-    </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-    </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-    </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-    </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-    </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-    </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-    </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-    </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-    </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-    </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-    </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-    </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-    </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-    </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-    </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-    </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-    </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-    </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-    </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-    </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-    </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
-    </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
-    </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
-      <c r="T40" s="1"/>
-      <c r="U40" s="1"/>
-      <c r="V40" s="1"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
-      <c r="T42" s="1"/>
-      <c r="U42" s="1"/>
-      <c r="V42" s="1"/>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
-      <c r="U43" s="1"/>
-      <c r="V43" s="1"/>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
-      <c r="S44" s="1"/>
-      <c r="T44" s="1"/>
-      <c r="U44" s="1"/>
-      <c r="V44" s="1"/>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="1"/>
-      <c r="S45" s="1"/>
-      <c r="T45" s="1"/>
-      <c r="U45" s="1"/>
-      <c r="V45" s="1"/>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="1"/>
-      <c r="S46" s="1"/>
-      <c r="T46" s="1"/>
-      <c r="U46" s="1"/>
-      <c r="V46" s="1"/>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="1"/>
-      <c r="S47" s="1"/>
-      <c r="T47" s="1"/>
-      <c r="U47" s="1"/>
-      <c r="V47" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:M1"/>
-    <mergeCell ref="O1:V1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1" xr:uid="{90FE3D0A-B8B1-4C9D-8E9B-D9144E7EB971}"/>
-    <hyperlink ref="H5" r:id="rId2" xr:uid="{8EC427D5-2CA7-4CDF-9F77-B1DEFEBB8367}"/>
-    <hyperlink ref="H8" r:id="rId3" xr:uid="{D317A997-1216-4BF3-A77E-301A96DB4800}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B3867948-BF52-48AA-81C4-3523C0DE80B8}">
-          <x14:formula1>
-            <xm:f>Datos!$K$3:$K$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>F3:F47</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E82A8886-A416-4228-B46B-90C40CEA1B4B}">
-          <x14:formula1>
-            <xm:f>Datos!$I$3:$I$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>P3:P47 L3:L47</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{35602AF9-D5FB-4285-81E5-DC80BB10AAED}">
-          <x14:formula1>
-            <xm:f>Datos!$E$3:$E$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>U3:V47 M3:M47</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{283202D1-C78B-4C17-9CCD-8D9E0621A27A}">
-          <x14:formula1>
-            <xm:f>Datos!$D$3:$D$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>N3:N47</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FCFF70CB-04DE-45E7-BA1E-E3F177CEA76E}">
-          <x14:formula1>
-            <xm:f>Datos!$B$3:$B$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>O3:O47</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A8D3B83F-CDFE-480C-8E57-50F4BDEC4912}">
-          <x14:formula1>
-            <xm:f>Datos!$C$3:$C$9</xm:f>
-          </x14:formula1>
-          <xm:sqref>Q3:Q47</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CA863D4C-1A2F-4B36-97A9-40096E92B6F4}">
-          <x14:formula1>
-            <xm:f>Datos!$H$3:$H$11</xm:f>
-          </x14:formula1>
-          <xm:sqref>R3:R47</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/BACKEND/aantik/Datos basicos-formato.xlsx
+++ b/BACKEND/aantik/Datos basicos-formato.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TUCHYS\Documents\GitHub\AANTIK\BACKEND\aantik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C10B42-F095-48EB-9E66-2DE7351FCB0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18497F0-42FC-4F78-A5C1-C166BF2053DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7662B8BB-F145-4BD1-9719-83B07E3F733A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{7662B8BB-F145-4BD1-9719-83B07E3F733A}"/>
   </bookViews>
   <sheets>
     <sheet name="datos organizacion social" sheetId="1" r:id="rId1"/>
@@ -1615,11 +1615,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:AC98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -6068,7 +6068,7 @@
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="10">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="11">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8E309A44-BE7B-41D5-ADD0-8EFE8E5172D0}">
           <x14:formula1>
             <xm:f>Datos!$B$3:$B$5</xm:f>
@@ -6121,13 +6121,19 @@
           <x14:formula1>
             <xm:f>Datos!$L$3:$L$6</xm:f>
           </x14:formula1>
-          <xm:sqref>AA1 AA3:AA1048576</xm:sqref>
+          <xm:sqref>AA1 AA90:AA1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C42A2E11-4B5B-4567-A7FF-4645CC545D73}">
           <x14:formula1>
             <xm:f>Datos!$N$3:$N$13</xm:f>
           </x14:formula1>
           <xm:sqref>K3:K98</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5F6A33EF-8BE7-4FDA-9D96-229183E24BAB}">
+          <x14:formula1>
+            <xm:f>Datos!$L$3:$L$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>AA3:AA89</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6137,13 +6143,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51B2B20A-C45E-4773-B4F9-D671A1D7B8D6}">
-  <dimension ref="B1:AF98"/>
+  <dimension ref="B1:AJ98"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AD9" sqref="AD9"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -6176,12 +6182,12 @@
     <col min="27" max="27" width="21.6640625" customWidth="1"/>
     <col min="28" max="28" width="12.6640625" customWidth="1"/>
     <col min="29" max="29" width="9.6640625" customWidth="1"/>
-    <col min="30" max="30" width="10.88671875" customWidth="1"/>
+    <col min="30" max="30" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="7.109375" customWidth="1"/>
     <col min="32" max="32" width="6.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" ht="18">
+    <row r="1" spans="2:36" ht="18">
       <c r="B1" s="35" t="s">
         <v>119</v>
       </c>
@@ -6224,7 +6230,7 @@
       <c r="AE1" s="40"/>
       <c r="AF1" s="41"/>
     </row>
-    <row r="2" spans="2:32" ht="187.2">
+    <row r="2" spans="2:36" ht="187.2">
       <c r="B2" s="2" t="s">
         <v>122</v>
       </c>
@@ -6319,7 +6325,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:32">
+    <row r="3" spans="2:36">
       <c r="B3" s="1" t="s">
         <v>125</v>
       </c>
@@ -6414,7 +6420,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="2:32">
+    <row r="4" spans="2:36">
       <c r="B4" s="1" t="s">
         <v>128</v>
       </c>
@@ -6509,7 +6515,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:32">
+    <row r="5" spans="2:36">
       <c r="B5" s="1" t="s">
         <v>130</v>
       </c>
@@ -6602,7 +6608,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="2:32">
+    <row r="6" spans="2:36">
       <c r="B6" s="1" t="s">
         <v>133</v>
       </c>
@@ -6697,7 +6703,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="2:32">
+    <row r="7" spans="2:36">
       <c r="B7" s="1" t="s">
         <v>90</v>
       </c>
@@ -6792,7 +6798,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="2:32" ht="18">
+    <row r="8" spans="2:36" ht="18">
       <c r="B8" s="1" t="s">
         <v>142</v>
       </c>
@@ -6886,8 +6892,9 @@
       <c r="AF8" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="9" spans="2:32" ht="22.2">
+      <c r="AJ8" s="31"/>
+    </row>
+    <row r="9" spans="2:36" ht="22.2">
       <c r="B9" s="1" t="s">
         <v>148</v>
       </c>
@@ -6982,7 +6989,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:32">
+    <row r="10" spans="2:36">
       <c r="B10" s="1" t="s">
         <v>151</v>
       </c>
@@ -7075,7 +7082,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="2:32">
+    <row r="11" spans="2:36">
       <c r="B11" s="1" t="s">
         <v>153</v>
       </c>
@@ -7168,7 +7175,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="2:32">
+    <row r="12" spans="2:36">
       <c r="B12" s="1" t="s">
         <v>155</v>
       </c>
@@ -7261,7 +7268,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="2:32">
+    <row r="13" spans="2:36">
       <c r="B13" s="1" t="s">
         <v>159</v>
       </c>
@@ -7350,7 +7357,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="2:32">
+    <row r="14" spans="2:36">
       <c r="B14" s="1" t="s">
         <v>164</v>
       </c>
@@ -7443,7 +7450,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="2:32">
+    <row r="15" spans="2:36">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -7498,7 +7505,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="2:32">
+    <row r="16" spans="2:36">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -10009,9 +10016,10 @@
     <hyperlink ref="L8" r:id="rId21" display="mailto:cvidalv@ucentral.edu.co" xr:uid="{61C33021-D125-45D0-8FFD-750932ABD269}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId22"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="9">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="10">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6A424F63-D1E0-45DF-9F8D-4CA5CE89D92F}">
           <x14:formula1>
             <xm:f>Datos!$G$3:$G$5</xm:f>
@@ -10058,13 +10066,19 @@
           <x14:formula1>
             <xm:f>Datos!$L$3:$L$6</xm:f>
           </x14:formula1>
-          <xm:sqref>AD1 AD3:AD1048576</xm:sqref>
+          <xm:sqref>AD1 AD90:AD1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EC836C75-BBB8-4000-818E-5F63BA59FF56}">
           <x14:formula1>
             <xm:f>Datos!$N$3:$N$13</xm:f>
           </x14:formula1>
           <xm:sqref>I3:I98</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{094B6339-ED41-4CBB-A001-5F9D0A140A60}">
+          <x14:formula1>
+            <xm:f>Datos!$L$3:$L$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>AD3:AD89</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -10076,8 +10090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497AB5D1-7E73-45CA-AA6F-2BD3A01FFF56}">
   <dimension ref="B1:V47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>

--- a/BACKEND/aantik/Datos basicos-formato.xlsx
+++ b/BACKEND/aantik/Datos basicos-formato.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TUCHYS\Documents\GitHub\AANTIK\BACKEND\aantik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18497F0-42FC-4F78-A5C1-C166BF2053DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBD7F58-12D4-428F-B844-7B73CB89996F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{7662B8BB-F145-4BD1-9719-83B07E3F733A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{7662B8BB-F145-4BD1-9719-83B07E3F733A}"/>
   </bookViews>
   <sheets>
     <sheet name="datos organizacion social" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1811" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="274">
   <si>
     <t>DATOS BÁSICOS ORGANIZACIÓN SOCIAL</t>
   </si>
@@ -293,9 +293,6 @@
     <t>Duban Velasquez Aristizabal</t>
   </si>
   <si>
-    <t>DubanveaQgmail.com</t>
-  </si>
-  <si>
     <t>Otro</t>
   </si>
   <si>
@@ -849,6 +846,21 @@
   </si>
   <si>
     <t>tema a asesorar (se relaciona con enfasis)</t>
+  </si>
+  <si>
+    <t>Dubanvea@gmail.com</t>
+  </si>
+  <si>
+    <t>fiorillo@javeriana.edu.co</t>
+  </si>
+  <si>
+    <t>molano@javeriana.edu.co</t>
+  </si>
+  <si>
+    <t>pvillegas@javeriana.edu.co</t>
+  </si>
+  <si>
+    <t>zuttajulian@javeriana.edu.co</t>
   </si>
 </sst>
 </file>
@@ -893,12 +905,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri Light"/>
@@ -936,8 +942,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -990,6 +1003,11 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -1124,12 +1142,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1152,43 +1171,42 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1213,14 +1231,20 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="7" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
+    <cellStyle name="Incorrecto" xfId="3" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
@@ -1619,12 +1643,12 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="54.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.21875" style="48" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.109375" customWidth="1"/>
     <col min="4" max="4" width="15.21875" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
@@ -1632,11 +1656,12 @@
     <col min="7" max="7" width="10.33203125" customWidth="1"/>
     <col min="8" max="8" width="20.44140625" customWidth="1"/>
     <col min="9" max="9" width="12.109375" customWidth="1"/>
-    <col min="10" max="11" width="21.88671875" customWidth="1"/>
+    <col min="10" max="10" width="21.88671875" style="48" customWidth="1"/>
+    <col min="11" max="11" width="21.88671875" customWidth="1"/>
     <col min="12" max="13" width="9.109375" customWidth="1"/>
     <col min="14" max="14" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20" style="46" customWidth="1"/>
+    <col min="16" max="16" width="20" style="35" customWidth="1"/>
     <col min="17" max="17" width="37.109375" customWidth="1"/>
     <col min="18" max="18" width="13.33203125" customWidth="1"/>
     <col min="19" max="19" width="15.33203125" customWidth="1"/>
@@ -1646,51 +1671,51 @@
     <col min="23" max="24" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="17.33203125" customWidth="1"/>
     <col min="26" max="26" width="8.88671875" customWidth="1"/>
-    <col min="27" max="27" width="15.88671875" style="44" customWidth="1"/>
+    <col min="27" max="27" width="15.88671875" style="33" customWidth="1"/>
     <col min="28" max="28" width="8.5546875" customWidth="1"/>
     <col min="29" max="29" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:29" ht="18">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="38" t="s">
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="34" t="s">
-        <v>257</v>
-      </c>
-      <c r="L1" s="39" t="s">
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="L1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="42"/>
     </row>
     <row r="2" spans="2:29" ht="144">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="44" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1714,11 +1739,11 @@
       <c r="I2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="28" t="s">
-        <v>268</v>
+      <c r="K2" s="25" t="s">
+        <v>267</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>12</v>
@@ -1766,7 +1791,7 @@
         <v>26</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AB2" s="4" t="s">
         <v>28</v>
@@ -1776,7 +1801,7 @@
       </c>
     </row>
     <row r="3" spans="2:29">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="44" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="13" t="s">
@@ -1798,11 +1823,11 @@
       <c r="I3" s="1">
         <v>3213117440</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="44" t="s">
         <v>36</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L3" s="1">
         <v>4</v>
@@ -1816,7 +1841,7 @@
       <c r="O3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P3" s="45" t="s">
+      <c r="P3" s="34" t="s">
         <v>39</v>
       </c>
       <c r="Q3" s="1" t="s">
@@ -1849,7 +1874,7 @@
       <c r="Z3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AA3" s="43" t="s">
+      <c r="AA3" s="32" t="s">
         <v>49</v>
       </c>
       <c r="AB3" s="1" t="s">
@@ -1860,7 +1885,7 @@
       </c>
     </row>
     <row r="4" spans="2:29">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="44" t="s">
         <v>50</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1884,11 +1909,11 @@
       <c r="I4" s="1">
         <v>3168330319</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="44" t="s">
         <v>57</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L4" s="1">
         <v>4</v>
@@ -1902,7 +1927,7 @@
       <c r="O4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="45" t="s">
+      <c r="P4" s="34" t="s">
         <v>58</v>
       </c>
       <c r="Q4" s="1" t="s">
@@ -1935,7 +1960,7 @@
       <c r="Z4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AA4" s="43" t="s">
+      <c r="AA4" s="32" t="s">
         <v>49</v>
       </c>
       <c r="AB4" s="1" t="s">
@@ -1946,7 +1971,7 @@
       </c>
     </row>
     <row r="5" spans="2:29">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="44" t="s">
         <v>66</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1970,11 +1995,11 @@
       <c r="I5" s="1">
         <v>3134844823</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="44" t="s">
         <v>72</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L5" s="1">
         <v>2</v>
@@ -1988,7 +2013,7 @@
       <c r="O5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P5" s="45" t="s">
+      <c r="P5" s="34" t="s">
         <v>39</v>
       </c>
       <c r="Q5" s="1" t="s">
@@ -2021,7 +2046,7 @@
       <c r="Z5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AA5" s="43" t="s">
+      <c r="AA5" s="32" t="s">
         <v>49</v>
       </c>
       <c r="AB5" s="1" t="s">
@@ -2032,7 +2057,7 @@
       </c>
     </row>
     <row r="6" spans="2:29">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="44" t="s">
         <v>77</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -2056,11 +2081,11 @@
       <c r="I6" s="1">
         <v>3123030236</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>84</v>
+      <c r="J6" s="50" t="s">
+        <v>269</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L6" s="1">
         <v>3</v>
@@ -2072,16 +2097,16 @@
         <v>37</v>
       </c>
       <c r="O6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P6" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q6" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="P6" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>42</v>
@@ -2096,10 +2121,10 @@
         <v>45</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y6" s="1" t="s">
         <v>48</v>
@@ -2107,46 +2132,46 @@
       <c r="Z6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AA6" s="43" t="s">
+      <c r="AA6" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="2:29">
+      <c r="B7" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="AB6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="2:29">
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="D7" s="1">
         <v>2010</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>81</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="I7" s="1">
         <v>3197987259</v>
       </c>
-      <c r="J7" s="12" t="s">
-        <v>95</v>
+      <c r="J7" s="44" t="s">
+        <v>94</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L7" s="1">
         <v>4</v>
@@ -2158,13 +2183,13 @@
         <v>37</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="P7" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="P7" s="34" t="s">
         <v>39</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>60</v>
@@ -2193,7 +2218,7 @@
       <c r="Z7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AA7" s="43" t="s">
+      <c r="AA7" s="32" t="s">
         <v>49</v>
       </c>
       <c r="AB7" s="1" t="s">
@@ -2204,35 +2229,35 @@
       </c>
     </row>
     <row r="8" spans="2:29">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="D8" s="1">
         <v>1989</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="I8" s="1">
         <v>3156026306</v>
       </c>
-      <c r="J8" s="12" t="s">
-        <v>103</v>
+      <c r="J8" s="44" t="s">
+        <v>102</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L8" s="1">
         <v>2</v>
@@ -2246,11 +2271,11 @@
       <c r="O8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="P8" s="45" t="s">
+      <c r="P8" s="34" t="s">
         <v>39</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>60</v>
@@ -2268,10 +2293,10 @@
         <v>45</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>48</v>
@@ -2279,7 +2304,7 @@
       <c r="Z8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AA8" s="43" t="s">
+      <c r="AA8" s="32" t="s">
         <v>49</v>
       </c>
       <c r="AB8" s="1" t="s">
@@ -2290,35 +2315,35 @@
       </c>
     </row>
     <row r="9" spans="2:29">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="I9" s="1">
         <v>3108736412</v>
       </c>
-      <c r="J9" s="12" t="s">
-        <v>112</v>
+      <c r="J9" s="44" t="s">
+        <v>111</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L9" s="1">
         <v>2</v>
@@ -2330,16 +2355,16 @@
         <v>37</v>
       </c>
       <c r="O9" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P9" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q9" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="P9" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="R9" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>42</v>
@@ -2357,7 +2382,7 @@
         <v>47</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Y9" s="1" t="s">
         <v>48</v>
@@ -2365,7 +2390,7 @@
       <c r="Z9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AA9" s="43" t="s">
+      <c r="AA9" s="32" t="s">
         <v>49</v>
       </c>
       <c r="AB9" s="1" t="s">
@@ -2376,7 +2401,7 @@
       </c>
     </row>
     <row r="10" spans="2:29">
-      <c r="B10" s="1"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -2384,7 +2409,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="J10" s="44"/>
       <c r="K10" s="12"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -2392,9 +2417,9 @@
         <v>37</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P10" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="P10" s="34" t="s">
         <v>63</v>
       </c>
       <c r="Q10" s="1"/>
@@ -2411,26 +2436,26 @@
         <v>61</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y10" s="1" t="s">
         <v>48</v>
       </c>
       <c r="Z10" s="1"/>
-      <c r="AA10" s="43"/>
+      <c r="AA10" s="32"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" spans="2:29">
-      <c r="B11" s="1"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -2438,7 +2463,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="J11" s="44"/>
       <c r="K11" s="12"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -2446,9 +2471,9 @@
         <v>37</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P11" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="P11" s="34" t="s">
         <v>63</v>
       </c>
       <c r="Q11" s="1"/>
@@ -2465,26 +2490,26 @@
         <v>61</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y11" s="1" t="s">
         <v>48</v>
       </c>
       <c r="Z11" s="1"/>
-      <c r="AA11" s="43"/>
+      <c r="AA11" s="32"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="2:29">
-      <c r="B12" s="1"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -2492,7 +2517,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="J12" s="44"/>
       <c r="K12" s="12"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -2500,9 +2525,9 @@
         <v>37</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P12" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="P12" s="34" t="s">
         <v>63</v>
       </c>
       <c r="Q12" s="1"/>
@@ -2519,26 +2544,26 @@
         <v>61</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y12" s="1" t="s">
         <v>48</v>
       </c>
       <c r="Z12" s="1"/>
-      <c r="AA12" s="43"/>
+      <c r="AA12" s="32"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" spans="2:29">
-      <c r="B13" s="1"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -2546,7 +2571,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="J13" s="44"/>
       <c r="K13" s="12"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -2554,9 +2579,9 @@
         <v>37</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P13" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="P13" s="34" t="s">
         <v>63</v>
       </c>
       <c r="Q13" s="1"/>
@@ -2573,26 +2598,26 @@
         <v>61</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y13" s="1" t="s">
         <v>48</v>
       </c>
       <c r="Z13" s="1"/>
-      <c r="AA13" s="43"/>
+      <c r="AA13" s="32"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="2:29">
-      <c r="B14" s="1"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -2600,7 +2625,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="J14" s="44"/>
       <c r="K14" s="12"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -2608,9 +2633,9 @@
         <v>37</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P14" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="P14" s="34" t="s">
         <v>63</v>
       </c>
       <c r="Q14" s="1"/>
@@ -2627,26 +2652,26 @@
         <v>61</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y14" s="1" t="s">
         <v>48</v>
       </c>
       <c r="Z14" s="1"/>
-      <c r="AA14" s="43"/>
+      <c r="AA14" s="32"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" spans="2:29">
-      <c r="B15" s="1"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -2654,7 +2679,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="J15" s="44"/>
       <c r="K15" s="12"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -2662,9 +2687,9 @@
         <v>37</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P15" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="P15" s="34" t="s">
         <v>63</v>
       </c>
       <c r="Q15" s="1"/>
@@ -2681,26 +2706,26 @@
         <v>61</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y15" s="1" t="s">
         <v>48</v>
       </c>
       <c r="Z15" s="1"/>
-      <c r="AA15" s="43"/>
+      <c r="AA15" s="32"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="2:29">
-      <c r="B16" s="1"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -2708,7 +2733,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="J16" s="44"/>
       <c r="K16" s="12"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -2716,9 +2741,9 @@
         <v>37</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P16" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="P16" s="34" t="s">
         <v>63</v>
       </c>
       <c r="Q16" s="1"/>
@@ -2735,26 +2760,26 @@
         <v>61</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y16" s="1" t="s">
         <v>48</v>
       </c>
       <c r="Z16" s="1"/>
-      <c r="AA16" s="43"/>
+      <c r="AA16" s="32"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="17" spans="2:29">
-      <c r="B17" s="1"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -2762,7 +2787,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="J17" s="44"/>
       <c r="K17" s="12"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -2770,9 +2795,9 @@
         <v>37</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P17" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="P17" s="34" t="s">
         <v>63</v>
       </c>
       <c r="Q17" s="1"/>
@@ -2789,26 +2814,26 @@
         <v>61</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y17" s="1" t="s">
         <v>48</v>
       </c>
       <c r="Z17" s="1"/>
-      <c r="AA17" s="43"/>
+      <c r="AA17" s="32"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" spans="2:29">
-      <c r="B18" s="1"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -2816,7 +2841,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="J18" s="44"/>
       <c r="K18" s="12"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -2824,9 +2849,9 @@
         <v>37</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P18" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="P18" s="34" t="s">
         <v>63</v>
       </c>
       <c r="Q18" s="1"/>
@@ -2843,26 +2868,26 @@
         <v>61</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X18" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y18" s="1" t="s">
         <v>48</v>
       </c>
       <c r="Z18" s="1"/>
-      <c r="AA18" s="43"/>
+      <c r="AA18" s="32"/>
       <c r="AB18" s="1"/>
       <c r="AC18" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="19" spans="2:29">
-      <c r="B19" s="1"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -2870,7 +2895,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="J19" s="44"/>
       <c r="K19" s="12"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -2878,9 +2903,9 @@
         <v>37</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P19" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="P19" s="34" t="s">
         <v>63</v>
       </c>
       <c r="Q19" s="1"/>
@@ -2897,26 +2922,26 @@
         <v>61</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y19" s="1" t="s">
         <v>48</v>
       </c>
       <c r="Z19" s="1"/>
-      <c r="AA19" s="43"/>
+      <c r="AA19" s="32"/>
       <c r="AB19" s="1"/>
       <c r="AC19" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="2:29">
-      <c r="B20" s="1"/>
+      <c r="B20" s="44"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -2924,7 +2949,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
+      <c r="J20" s="44"/>
       <c r="K20" s="12"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -2932,9 +2957,9 @@
         <v>37</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P20" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="P20" s="34" t="s">
         <v>63</v>
       </c>
       <c r="Q20" s="1"/>
@@ -2951,26 +2976,26 @@
         <v>61</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y20" s="1" t="s">
         <v>48</v>
       </c>
       <c r="Z20" s="1"/>
-      <c r="AA20" s="43"/>
+      <c r="AA20" s="32"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="21" spans="2:29">
-      <c r="B21" s="1"/>
+      <c r="B21" s="44"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -2978,7 +3003,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="J21" s="44"/>
       <c r="K21" s="12"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -2986,9 +3011,9 @@
         <v>37</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P21" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="P21" s="34" t="s">
         <v>63</v>
       </c>
       <c r="Q21" s="1"/>
@@ -3005,26 +3030,26 @@
         <v>61</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y21" s="1" t="s">
         <v>48</v>
       </c>
       <c r="Z21" s="1"/>
-      <c r="AA21" s="43"/>
+      <c r="AA21" s="32"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="22" spans="2:29">
-      <c r="B22" s="1"/>
+      <c r="B22" s="44"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -3032,7 +3057,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="J22" s="44"/>
       <c r="K22" s="12"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -3040,9 +3065,9 @@
         <v>37</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P22" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="P22" s="34" t="s">
         <v>63</v>
       </c>
       <c r="Q22" s="1"/>
@@ -3059,26 +3084,26 @@
         <v>61</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X22" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y22" s="1" t="s">
         <v>48</v>
       </c>
       <c r="Z22" s="1"/>
-      <c r="AA22" s="43"/>
+      <c r="AA22" s="32"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="2:29">
-      <c r="B23" s="1"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -3086,7 +3111,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+      <c r="J23" s="44"/>
       <c r="K23" s="12"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -3094,9 +3119,9 @@
         <v>37</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P23" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="P23" s="34" t="s">
         <v>63</v>
       </c>
       <c r="Q23" s="1"/>
@@ -3113,26 +3138,26 @@
         <v>61</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y23" s="1" t="s">
         <v>48</v>
       </c>
       <c r="Z23" s="1"/>
-      <c r="AA23" s="43"/>
+      <c r="AA23" s="32"/>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="24" spans="2:29">
-      <c r="B24" s="1"/>
+      <c r="B24" s="44"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -3140,7 +3165,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
+      <c r="J24" s="44"/>
       <c r="K24" s="12"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -3148,9 +3173,9 @@
         <v>37</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P24" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="P24" s="34" t="s">
         <v>63</v>
       </c>
       <c r="Q24" s="1"/>
@@ -3167,26 +3192,26 @@
         <v>61</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X24" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y24" s="1" t="s">
         <v>48</v>
       </c>
       <c r="Z24" s="1"/>
-      <c r="AA24" s="43"/>
+      <c r="AA24" s="32"/>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="25" spans="2:29">
-      <c r="B25" s="1"/>
+      <c r="B25" s="44"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -3194,7 +3219,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
+      <c r="J25" s="44"/>
       <c r="K25" s="12"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -3202,9 +3227,9 @@
         <v>37</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P25" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="P25" s="34" t="s">
         <v>63</v>
       </c>
       <c r="Q25" s="1"/>
@@ -3221,34 +3246,34 @@
         <v>61</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X25" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y25" s="1" t="s">
         <v>48</v>
       </c>
       <c r="Z25" s="1"/>
-      <c r="AA25" s="43"/>
+      <c r="AA25" s="32"/>
       <c r="AB25" s="1"/>
       <c r="AC25" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="26" spans="2:29">
-      <c r="B26" s="1"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="1"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="44"/>
       <c r="K26" s="12"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -3256,9 +3281,9 @@
         <v>37</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P26" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="P26" s="34" t="s">
         <v>63</v>
       </c>
       <c r="Q26" s="1"/>
@@ -3275,26 +3300,26 @@
         <v>61</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X26" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y26" s="1" t="s">
         <v>48</v>
       </c>
       <c r="Z26" s="1"/>
-      <c r="AA26" s="43"/>
+      <c r="AA26" s="32"/>
       <c r="AB26" s="1"/>
       <c r="AC26" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="27" spans="2:29">
-      <c r="B27" s="1"/>
+      <c r="B27" s="44"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -3302,7 +3327,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
+      <c r="J27" s="44"/>
       <c r="K27" s="12"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -3310,9 +3335,9 @@
         <v>37</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P27" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="P27" s="34" t="s">
         <v>63</v>
       </c>
       <c r="Q27" s="1"/>
@@ -3329,26 +3354,26 @@
         <v>61</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X27" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y27" s="1" t="s">
         <v>48</v>
       </c>
       <c r="Z27" s="1"/>
-      <c r="AA27" s="43"/>
+      <c r="AA27" s="32"/>
       <c r="AB27" s="1"/>
       <c r="AC27" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="28" spans="2:29">
-      <c r="B28" s="1"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -3356,7 +3381,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
+      <c r="J28" s="44"/>
       <c r="K28" s="12"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -3364,9 +3389,9 @@
         <v>37</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P28" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="P28" s="34" t="s">
         <v>63</v>
       </c>
       <c r="Q28" s="1"/>
@@ -3383,26 +3408,26 @@
         <v>61</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W28" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X28" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y28" s="1" t="s">
         <v>48</v>
       </c>
       <c r="Z28" s="1"/>
-      <c r="AA28" s="43"/>
+      <c r="AA28" s="32"/>
       <c r="AB28" s="1"/>
       <c r="AC28" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="29" spans="2:29">
-      <c r="B29" s="1"/>
+      <c r="B29" s="44"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -3410,7 +3435,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
+      <c r="J29" s="44"/>
       <c r="K29" s="12"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -3418,9 +3443,9 @@
         <v>37</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P29" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="P29" s="34" t="s">
         <v>63</v>
       </c>
       <c r="Q29" s="1"/>
@@ -3437,26 +3462,26 @@
         <v>61</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X29" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y29" s="1" t="s">
         <v>48</v>
       </c>
       <c r="Z29" s="1"/>
-      <c r="AA29" s="43"/>
+      <c r="AA29" s="32"/>
       <c r="AB29" s="1"/>
       <c r="AC29" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="30" spans="2:29">
-      <c r="B30" s="1"/>
+      <c r="B30" s="44"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -3464,7 +3489,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
+      <c r="J30" s="44"/>
       <c r="K30" s="12"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -3472,9 +3497,9 @@
         <v>37</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P30" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="P30" s="34" t="s">
         <v>63</v>
       </c>
       <c r="Q30" s="1"/>
@@ -3491,26 +3516,26 @@
         <v>61</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X30" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y30" s="1" t="s">
         <v>48</v>
       </c>
       <c r="Z30" s="1"/>
-      <c r="AA30" s="43"/>
+      <c r="AA30" s="32"/>
       <c r="AB30" s="1"/>
       <c r="AC30" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="31" spans="2:29">
-      <c r="B31" s="1"/>
+      <c r="B31" s="44"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -3518,7 +3543,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
+      <c r="J31" s="44"/>
       <c r="K31" s="12"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -3526,9 +3551,9 @@
         <v>37</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P31" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="P31" s="34" t="s">
         <v>63</v>
       </c>
       <c r="Q31" s="1"/>
@@ -3545,26 +3570,26 @@
         <v>61</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X31" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y31" s="1" t="s">
         <v>48</v>
       </c>
       <c r="Z31" s="1"/>
-      <c r="AA31" s="43"/>
+      <c r="AA31" s="32"/>
       <c r="AB31" s="1"/>
       <c r="AC31" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="32" spans="2:29">
-      <c r="B32" s="1"/>
+      <c r="B32" s="44"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -3572,7 +3597,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
+      <c r="J32" s="44"/>
       <c r="K32" s="12"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -3580,9 +3605,9 @@
         <v>37</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P32" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="P32" s="34" t="s">
         <v>63</v>
       </c>
       <c r="Q32" s="1"/>
@@ -3599,26 +3624,26 @@
         <v>61</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W32" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X32" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y32" s="1" t="s">
         <v>48</v>
       </c>
       <c r="Z32" s="1"/>
-      <c r="AA32" s="43"/>
+      <c r="AA32" s="32"/>
       <c r="AB32" s="1"/>
       <c r="AC32" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="33" spans="2:29">
-      <c r="B33" s="1"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -3626,7 +3651,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
+      <c r="J33" s="44"/>
       <c r="K33" s="12"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -3634,9 +3659,9 @@
         <v>37</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P33" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="P33" s="34" t="s">
         <v>63</v>
       </c>
       <c r="Q33" s="1"/>
@@ -3653,26 +3678,26 @@
         <v>61</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W33" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X33" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y33" s="1" t="s">
         <v>48</v>
       </c>
       <c r="Z33" s="1"/>
-      <c r="AA33" s="43"/>
+      <c r="AA33" s="32"/>
       <c r="AB33" s="1"/>
       <c r="AC33" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="34" spans="2:29">
-      <c r="B34" s="1"/>
+      <c r="B34" s="44"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -3680,7 +3705,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
+      <c r="J34" s="44"/>
       <c r="K34" s="12"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -3688,9 +3713,9 @@
         <v>37</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P34" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="P34" s="34" t="s">
         <v>63</v>
       </c>
       <c r="Q34" s="1"/>
@@ -3707,26 +3732,26 @@
         <v>61</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X34" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y34" s="1" t="s">
         <v>48</v>
       </c>
       <c r="Z34" s="1"/>
-      <c r="AA34" s="43"/>
+      <c r="AA34" s="32"/>
       <c r="AB34" s="1"/>
       <c r="AC34" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="35" spans="2:29">
-      <c r="B35" s="1"/>
+      <c r="B35" s="44"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -3734,7 +3759,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
+      <c r="J35" s="44"/>
       <c r="K35" s="12"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -3742,9 +3767,9 @@
         <v>37</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P35" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="P35" s="34" t="s">
         <v>63</v>
       </c>
       <c r="Q35" s="1"/>
@@ -3761,26 +3786,26 @@
         <v>61</v>
       </c>
       <c r="V35" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X35" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y35" s="1" t="s">
         <v>48</v>
       </c>
       <c r="Z35" s="1"/>
-      <c r="AA35" s="43"/>
+      <c r="AA35" s="32"/>
       <c r="AB35" s="1"/>
       <c r="AC35" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="36" spans="2:29">
-      <c r="B36" s="1"/>
+      <c r="B36" s="44"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -3788,7 +3813,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
+      <c r="J36" s="44"/>
       <c r="K36" s="12"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -3796,9 +3821,9 @@
         <v>37</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P36" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="P36" s="34" t="s">
         <v>63</v>
       </c>
       <c r="Q36" s="1"/>
@@ -3815,26 +3840,26 @@
         <v>61</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W36" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X36" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y36" s="1" t="s">
         <v>48</v>
       </c>
       <c r="Z36" s="1"/>
-      <c r="AA36" s="43"/>
+      <c r="AA36" s="32"/>
       <c r="AB36" s="1"/>
       <c r="AC36" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="37" spans="2:29">
-      <c r="B37" s="1"/>
+      <c r="B37" s="44"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -3842,7 +3867,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
+      <c r="J37" s="44"/>
       <c r="K37" s="12"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -3850,9 +3875,9 @@
         <v>37</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P37" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="P37" s="34" t="s">
         <v>63</v>
       </c>
       <c r="Q37" s="1"/>
@@ -3869,26 +3894,26 @@
         <v>61</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W37" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X37" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y37" s="1" t="s">
         <v>48</v>
       </c>
       <c r="Z37" s="1"/>
-      <c r="AA37" s="43"/>
+      <c r="AA37" s="32"/>
       <c r="AB37" s="1"/>
       <c r="AC37" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="38" spans="2:29">
-      <c r="B38" s="1"/>
+      <c r="B38" s="44"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -3896,7 +3921,7 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
+      <c r="J38" s="44"/>
       <c r="K38" s="12"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -3904,9 +3929,9 @@
         <v>37</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P38" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="P38" s="34" t="s">
         <v>63</v>
       </c>
       <c r="Q38" s="1"/>
@@ -3923,26 +3948,26 @@
         <v>61</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W38" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X38" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y38" s="1" t="s">
         <v>48</v>
       </c>
       <c r="Z38" s="1"/>
-      <c r="AA38" s="43"/>
+      <c r="AA38" s="32"/>
       <c r="AB38" s="1"/>
       <c r="AC38" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="39" spans="2:29">
-      <c r="B39" s="1"/>
+      <c r="B39" s="44"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -3950,7 +3975,7 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
+      <c r="J39" s="44"/>
       <c r="K39" s="12"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
@@ -3958,9 +3983,9 @@
         <v>37</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P39" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="P39" s="34" t="s">
         <v>63</v>
       </c>
       <c r="Q39" s="1"/>
@@ -3977,26 +4002,26 @@
         <v>61</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X39" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y39" s="1" t="s">
         <v>48</v>
       </c>
       <c r="Z39" s="1"/>
-      <c r="AA39" s="43"/>
+      <c r="AA39" s="32"/>
       <c r="AB39" s="1"/>
       <c r="AC39" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="40" spans="2:29">
-      <c r="B40" s="1"/>
+      <c r="B40" s="44"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -4004,7 +4029,7 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
+      <c r="J40" s="44"/>
       <c r="K40" s="12"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
@@ -4012,9 +4037,9 @@
         <v>37</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P40" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="P40" s="34" t="s">
         <v>63</v>
       </c>
       <c r="Q40" s="1"/>
@@ -4031,26 +4056,26 @@
         <v>61</v>
       </c>
       <c r="V40" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W40" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X40" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y40" s="1" t="s">
         <v>48</v>
       </c>
       <c r="Z40" s="1"/>
-      <c r="AA40" s="43"/>
+      <c r="AA40" s="32"/>
       <c r="AB40" s="1"/>
       <c r="AC40" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="41" spans="2:29">
-      <c r="B41" s="1"/>
+      <c r="B41" s="44"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -4058,7 +4083,7 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
+      <c r="J41" s="44"/>
       <c r="K41" s="12"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
@@ -4066,9 +4091,9 @@
         <v>37</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P41" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="P41" s="34" t="s">
         <v>63</v>
       </c>
       <c r="Q41" s="1"/>
@@ -4085,26 +4110,26 @@
         <v>61</v>
       </c>
       <c r="V41" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W41" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X41" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y41" s="1" t="s">
         <v>48</v>
       </c>
       <c r="Z41" s="1"/>
-      <c r="AA41" s="43"/>
+      <c r="AA41" s="32"/>
       <c r="AB41" s="1"/>
       <c r="AC41" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="42" spans="2:29">
-      <c r="B42" s="1"/>
+      <c r="B42" s="44"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -4112,7 +4137,7 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
+      <c r="J42" s="44"/>
       <c r="K42" s="12"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
@@ -4120,9 +4145,9 @@
         <v>37</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P42" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="P42" s="34" t="s">
         <v>63</v>
       </c>
       <c r="Q42" s="1"/>
@@ -4139,26 +4164,26 @@
         <v>61</v>
       </c>
       <c r="V42" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W42" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X42" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y42" s="1" t="s">
         <v>48</v>
       </c>
       <c r="Z42" s="1"/>
-      <c r="AA42" s="43"/>
+      <c r="AA42" s="32"/>
       <c r="AB42" s="1"/>
       <c r="AC42" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="43" spans="2:29">
-      <c r="B43" s="1"/>
+      <c r="B43" s="44"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -4166,7 +4191,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
+      <c r="J43" s="44"/>
       <c r="K43" s="12"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
@@ -4174,9 +4199,9 @@
         <v>37</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P43" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="P43" s="34" t="s">
         <v>63</v>
       </c>
       <c r="Q43" s="1"/>
@@ -4193,26 +4218,26 @@
         <v>61</v>
       </c>
       <c r="V43" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W43" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X43" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y43" s="1" t="s">
         <v>48</v>
       </c>
       <c r="Z43" s="1"/>
-      <c r="AA43" s="43"/>
+      <c r="AA43" s="32"/>
       <c r="AB43" s="1"/>
       <c r="AC43" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="44" spans="2:29">
-      <c r="B44" s="1"/>
+      <c r="B44" s="44"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -4220,7 +4245,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
+      <c r="J44" s="44"/>
       <c r="K44" s="12"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
@@ -4228,9 +4253,9 @@
         <v>37</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P44" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="P44" s="34" t="s">
         <v>63</v>
       </c>
       <c r="Q44" s="1"/>
@@ -4247,26 +4272,26 @@
         <v>61</v>
       </c>
       <c r="V44" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W44" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X44" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y44" s="1" t="s">
         <v>48</v>
       </c>
       <c r="Z44" s="1"/>
-      <c r="AA44" s="43"/>
+      <c r="AA44" s="32"/>
       <c r="AB44" s="1"/>
       <c r="AC44" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="45" spans="2:29">
-      <c r="B45" s="1"/>
+      <c r="B45" s="44"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -4274,7 +4299,7 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
+      <c r="J45" s="44"/>
       <c r="K45" s="12"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
@@ -4282,9 +4307,9 @@
         <v>37</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P45" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="P45" s="34" t="s">
         <v>63</v>
       </c>
       <c r="Q45" s="1"/>
@@ -4301,26 +4326,26 @@
         <v>61</v>
       </c>
       <c r="V45" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W45" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X45" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y45" s="1" t="s">
         <v>48</v>
       </c>
       <c r="Z45" s="1"/>
-      <c r="AA45" s="43"/>
+      <c r="AA45" s="32"/>
       <c r="AB45" s="1"/>
       <c r="AC45" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="46" spans="2:29">
-      <c r="B46" s="1"/>
+      <c r="B46" s="44"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -4328,7 +4353,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
+      <c r="J46" s="44"/>
       <c r="K46" s="12"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
@@ -4336,9 +4361,9 @@
         <v>37</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P46" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="P46" s="34" t="s">
         <v>63</v>
       </c>
       <c r="Q46" s="1"/>
@@ -4355,26 +4380,26 @@
         <v>61</v>
       </c>
       <c r="V46" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W46" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X46" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y46" s="1" t="s">
         <v>48</v>
       </c>
       <c r="Z46" s="1"/>
-      <c r="AA46" s="43"/>
+      <c r="AA46" s="32"/>
       <c r="AB46" s="1"/>
       <c r="AC46" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="47" spans="2:29">
-      <c r="B47" s="1"/>
+      <c r="B47" s="44"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -4382,7 +4407,7 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
+      <c r="J47" s="44"/>
       <c r="K47" s="12"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
@@ -4390,9 +4415,9 @@
         <v>37</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P47" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="P47" s="34" t="s">
         <v>63</v>
       </c>
       <c r="Q47" s="1"/>
@@ -4409,26 +4434,26 @@
         <v>61</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W47" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X47" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y47" s="1" t="s">
         <v>48</v>
       </c>
       <c r="Z47" s="1"/>
-      <c r="AA47" s="43"/>
+      <c r="AA47" s="32"/>
       <c r="AB47" s="1"/>
       <c r="AC47" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="48" spans="2:29">
-      <c r="B48" s="1"/>
+      <c r="B48" s="44"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -4436,7 +4461,7 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
+      <c r="J48" s="44"/>
       <c r="K48" s="12"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -4444,9 +4469,9 @@
         <v>37</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P48" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="P48" s="34" t="s">
         <v>63</v>
       </c>
       <c r="Q48" s="1"/>
@@ -4463,26 +4488,26 @@
         <v>61</v>
       </c>
       <c r="V48" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W48" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X48" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y48" s="1" t="s">
         <v>48</v>
       </c>
       <c r="Z48" s="1"/>
-      <c r="AA48" s="43"/>
+      <c r="AA48" s="32"/>
       <c r="AB48" s="1"/>
       <c r="AC48" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="49" spans="2:29">
-      <c r="B49" s="1"/>
+      <c r="B49" s="44"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -4490,7 +4515,7 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
+      <c r="J49" s="44"/>
       <c r="K49" s="12"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
@@ -4498,9 +4523,9 @@
         <v>37</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P49" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="P49" s="34" t="s">
         <v>63</v>
       </c>
       <c r="Q49" s="1"/>
@@ -4517,26 +4542,26 @@
         <v>61</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X49" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y49" s="1" t="s">
         <v>48</v>
       </c>
       <c r="Z49" s="1"/>
-      <c r="AA49" s="43"/>
+      <c r="AA49" s="32"/>
       <c r="AB49" s="1"/>
       <c r="AC49" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="50" spans="2:29">
-      <c r="B50" s="1"/>
+      <c r="B50" s="44"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -4544,7 +4569,7 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
+      <c r="J50" s="44"/>
       <c r="K50" s="12"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
@@ -4552,9 +4577,9 @@
         <v>37</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P50" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="P50" s="34" t="s">
         <v>63</v>
       </c>
       <c r="Q50" s="1"/>
@@ -4571,26 +4596,26 @@
         <v>61</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X50" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y50" s="1" t="s">
         <v>48</v>
       </c>
       <c r="Z50" s="1"/>
-      <c r="AA50" s="43"/>
+      <c r="AA50" s="32"/>
       <c r="AB50" s="1"/>
       <c r="AC50" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="51" spans="2:29">
-      <c r="B51" s="1"/>
+      <c r="B51" s="44"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -4598,7 +4623,7 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
+      <c r="J51" s="44"/>
       <c r="K51" s="12"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
@@ -4606,9 +4631,9 @@
         <v>37</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P51" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="P51" s="34" t="s">
         <v>63</v>
       </c>
       <c r="Q51" s="1"/>
@@ -4625,26 +4650,26 @@
         <v>61</v>
       </c>
       <c r="V51" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W51" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X51" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y51" s="1" t="s">
         <v>48</v>
       </c>
       <c r="Z51" s="1"/>
-      <c r="AA51" s="43"/>
+      <c r="AA51" s="32"/>
       <c r="AB51" s="1"/>
       <c r="AC51" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="52" spans="2:29">
-      <c r="B52" s="1"/>
+      <c r="B52" s="44"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -4652,7 +4677,7 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
+      <c r="J52" s="44"/>
       <c r="K52" s="12"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
@@ -4660,9 +4685,9 @@
         <v>37</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P52" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="P52" s="34" t="s">
         <v>63</v>
       </c>
       <c r="Q52" s="1"/>
@@ -4679,26 +4704,26 @@
         <v>61</v>
       </c>
       <c r="V52" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W52" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X52" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y52" s="1" t="s">
         <v>48</v>
       </c>
       <c r="Z52" s="1"/>
-      <c r="AA52" s="43"/>
+      <c r="AA52" s="32"/>
       <c r="AB52" s="1"/>
       <c r="AC52" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="53" spans="2:29">
-      <c r="B53" s="1"/>
+      <c r="B53" s="44"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -4706,7 +4731,7 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
+      <c r="J53" s="44"/>
       <c r="K53" s="12"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
@@ -4714,9 +4739,9 @@
         <v>37</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P53" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="P53" s="34" t="s">
         <v>63</v>
       </c>
       <c r="Q53" s="1"/>
@@ -4733,26 +4758,26 @@
         <v>61</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y53" s="1" t="s">
         <v>48</v>
       </c>
       <c r="Z53" s="1"/>
-      <c r="AA53" s="43"/>
+      <c r="AA53" s="32"/>
       <c r="AB53" s="1"/>
       <c r="AC53" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="54" spans="2:29">
-      <c r="B54" s="1"/>
+      <c r="B54" s="44"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -4760,7 +4785,7 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
+      <c r="J54" s="44"/>
       <c r="K54" s="12"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
@@ -4768,9 +4793,9 @@
         <v>37</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P54" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="P54" s="34" t="s">
         <v>63</v>
       </c>
       <c r="Q54" s="1"/>
@@ -4787,26 +4812,26 @@
         <v>61</v>
       </c>
       <c r="V54" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W54" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X54" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y54" s="1" t="s">
         <v>48</v>
       </c>
       <c r="Z54" s="1"/>
-      <c r="AA54" s="43"/>
+      <c r="AA54" s="32"/>
       <c r="AB54" s="1"/>
       <c r="AC54" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="55" spans="2:29">
-      <c r="B55" s="1"/>
+      <c r="B55" s="44"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -4814,7 +4839,7 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
+      <c r="J55" s="44"/>
       <c r="K55" s="12"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
@@ -4822,9 +4847,9 @@
         <v>37</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P55" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="P55" s="34" t="s">
         <v>63</v>
       </c>
       <c r="Q55" s="1"/>
@@ -4841,26 +4866,26 @@
         <v>61</v>
       </c>
       <c r="V55" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W55" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X55" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y55" s="1" t="s">
         <v>48</v>
       </c>
       <c r="Z55" s="1"/>
-      <c r="AA55" s="43"/>
+      <c r="AA55" s="32"/>
       <c r="AB55" s="1"/>
       <c r="AC55" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="56" spans="2:29">
-      <c r="B56" s="1"/>
+      <c r="B56" s="44"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -4868,7 +4893,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
+      <c r="J56" s="44"/>
       <c r="K56" s="12"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
@@ -4876,9 +4901,9 @@
         <v>37</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P56" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="P56" s="34" t="s">
         <v>63</v>
       </c>
       <c r="Q56" s="1"/>
@@ -4895,26 +4920,26 @@
         <v>61</v>
       </c>
       <c r="V56" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W56" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X56" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y56" s="1" t="s">
         <v>48</v>
       </c>
       <c r="Z56" s="1"/>
-      <c r="AA56" s="43"/>
+      <c r="AA56" s="32"/>
       <c r="AB56" s="1"/>
       <c r="AC56" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="57" spans="2:29">
-      <c r="B57" s="1"/>
+      <c r="B57" s="44"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -4922,7 +4947,7 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
+      <c r="J57" s="44"/>
       <c r="K57" s="12"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
@@ -4930,9 +4955,9 @@
         <v>37</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P57" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="P57" s="34" t="s">
         <v>63</v>
       </c>
       <c r="Q57" s="1"/>
@@ -4949,26 +4974,26 @@
         <v>61</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X57" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y57" s="1" t="s">
         <v>48</v>
       </c>
       <c r="Z57" s="1"/>
-      <c r="AA57" s="43"/>
+      <c r="AA57" s="32"/>
       <c r="AB57" s="1"/>
       <c r="AC57" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="58" spans="2:29">
-      <c r="B58" s="1"/>
+      <c r="B58" s="44"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -4976,7 +5001,7 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
+      <c r="J58" s="44"/>
       <c r="K58" s="12"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
@@ -4984,9 +5009,9 @@
         <v>37</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P58" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="P58" s="34" t="s">
         <v>63</v>
       </c>
       <c r="Q58" s="1"/>
@@ -5003,26 +5028,26 @@
         <v>61</v>
       </c>
       <c r="V58" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W58" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X58" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y58" s="1" t="s">
         <v>48</v>
       </c>
       <c r="Z58" s="1"/>
-      <c r="AA58" s="43"/>
+      <c r="AA58" s="32"/>
       <c r="AB58" s="1"/>
       <c r="AC58" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="59" spans="2:29">
-      <c r="B59" s="1"/>
+      <c r="B59" s="44"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -5030,7 +5055,7 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
+      <c r="J59" s="44"/>
       <c r="K59" s="12"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
@@ -5038,9 +5063,9 @@
         <v>37</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P59" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="P59" s="34" t="s">
         <v>63</v>
       </c>
       <c r="Q59" s="1"/>
@@ -5057,26 +5082,26 @@
         <v>61</v>
       </c>
       <c r="V59" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W59" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X59" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y59" s="1" t="s">
         <v>48</v>
       </c>
       <c r="Z59" s="1"/>
-      <c r="AA59" s="43"/>
+      <c r="AA59" s="32"/>
       <c r="AB59" s="1"/>
       <c r="AC59" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="60" spans="2:29">
-      <c r="B60" s="1"/>
+      <c r="B60" s="44"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -5084,7 +5109,7 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
+      <c r="J60" s="44"/>
       <c r="K60" s="12"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
@@ -5092,9 +5117,9 @@
         <v>37</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P60" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="P60" s="34" t="s">
         <v>63</v>
       </c>
       <c r="Q60" s="1"/>
@@ -5111,26 +5136,26 @@
         <v>61</v>
       </c>
       <c r="V60" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W60" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X60" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y60" s="1" t="s">
         <v>48</v>
       </c>
       <c r="Z60" s="1"/>
-      <c r="AA60" s="43"/>
+      <c r="AA60" s="32"/>
       <c r="AB60" s="1"/>
       <c r="AC60" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="61" spans="2:29">
-      <c r="B61" s="1"/>
+      <c r="B61" s="44"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -5138,7 +5163,7 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
+      <c r="J61" s="44"/>
       <c r="K61" s="12"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
@@ -5146,9 +5171,9 @@
         <v>37</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="P61" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="P61" s="34" t="s">
         <v>63</v>
       </c>
       <c r="Q61" s="1"/>
@@ -5165,26 +5190,26 @@
         <v>61</v>
       </c>
       <c r="V61" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="W61" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X61" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y61" s="1" t="s">
         <v>48</v>
       </c>
       <c r="Z61" s="1"/>
-      <c r="AA61" s="43"/>
+      <c r="AA61" s="32"/>
       <c r="AB61" s="1"/>
       <c r="AC61" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="62" spans="2:29">
-      <c r="B62" s="1"/>
+      <c r="B62" s="44"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -5192,13 +5217,13 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
+      <c r="J62" s="44"/>
       <c r="K62" s="12"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
-      <c r="P62" s="45"/>
+      <c r="P62" s="34"/>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
@@ -5209,12 +5234,12 @@
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
-      <c r="AA62" s="43"/>
+      <c r="AA62" s="32"/>
       <c r="AB62" s="1"/>
       <c r="AC62" s="1"/>
     </row>
     <row r="63" spans="2:29">
-      <c r="B63" s="1"/>
+      <c r="B63" s="44"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -5222,13 +5247,13 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
+      <c r="J63" s="44"/>
       <c r="K63" s="12"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
-      <c r="P63" s="45"/>
+      <c r="P63" s="34"/>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
@@ -5239,12 +5264,12 @@
       <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
-      <c r="AA63" s="43"/>
+      <c r="AA63" s="32"/>
       <c r="AB63" s="1"/>
       <c r="AC63" s="1"/>
     </row>
     <row r="64" spans="2:29">
-      <c r="B64" s="1"/>
+      <c r="B64" s="44"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -5252,13 +5277,13 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
+      <c r="J64" s="44"/>
       <c r="K64" s="12"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
-      <c r="P64" s="45"/>
+      <c r="P64" s="34"/>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
@@ -5269,12 +5294,12 @@
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
-      <c r="AA64" s="43"/>
+      <c r="AA64" s="32"/>
       <c r="AB64" s="1"/>
       <c r="AC64" s="1"/>
     </row>
     <row r="65" spans="2:29">
-      <c r="B65" s="1"/>
+      <c r="B65" s="44"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -5282,13 +5307,13 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
+      <c r="J65" s="44"/>
       <c r="K65" s="12"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
-      <c r="P65" s="45"/>
+      <c r="P65" s="34"/>
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
@@ -5299,12 +5324,12 @@
       <c r="X65" s="1"/>
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
-      <c r="AA65" s="43"/>
+      <c r="AA65" s="32"/>
       <c r="AB65" s="1"/>
       <c r="AC65" s="1"/>
     </row>
     <row r="66" spans="2:29">
-      <c r="B66" s="1"/>
+      <c r="B66" s="44"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -5312,13 +5337,13 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
+      <c r="J66" s="44"/>
       <c r="K66" s="12"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
-      <c r="P66" s="45"/>
+      <c r="P66" s="34"/>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
@@ -5329,12 +5354,12 @@
       <c r="X66" s="1"/>
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
-      <c r="AA66" s="43"/>
+      <c r="AA66" s="32"/>
       <c r="AB66" s="1"/>
       <c r="AC66" s="1"/>
     </row>
     <row r="67" spans="2:29">
-      <c r="B67" s="1"/>
+      <c r="B67" s="44"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -5342,13 +5367,13 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
+      <c r="J67" s="44"/>
       <c r="K67" s="12"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
-      <c r="P67" s="45"/>
+      <c r="P67" s="34"/>
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
@@ -5359,12 +5384,12 @@
       <c r="X67" s="1"/>
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
-      <c r="AA67" s="43"/>
+      <c r="AA67" s="32"/>
       <c r="AB67" s="1"/>
       <c r="AC67" s="1"/>
     </row>
     <row r="68" spans="2:29">
-      <c r="B68" s="1"/>
+      <c r="B68" s="44"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -5372,13 +5397,13 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
+      <c r="J68" s="44"/>
       <c r="K68" s="12"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
-      <c r="P68" s="45"/>
+      <c r="P68" s="34"/>
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
@@ -5389,12 +5414,12 @@
       <c r="X68" s="1"/>
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
-      <c r="AA68" s="43"/>
+      <c r="AA68" s="32"/>
       <c r="AB68" s="1"/>
       <c r="AC68" s="1"/>
     </row>
     <row r="69" spans="2:29">
-      <c r="B69" s="1"/>
+      <c r="B69" s="44"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -5402,13 +5427,13 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
+      <c r="J69" s="44"/>
       <c r="K69" s="12"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
-      <c r="P69" s="45"/>
+      <c r="P69" s="34"/>
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
@@ -5419,12 +5444,12 @@
       <c r="X69" s="1"/>
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
-      <c r="AA69" s="43"/>
+      <c r="AA69" s="32"/>
       <c r="AB69" s="1"/>
       <c r="AC69" s="1"/>
     </row>
     <row r="70" spans="2:29">
-      <c r="B70" s="1"/>
+      <c r="B70" s="44"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -5432,13 +5457,13 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
+      <c r="J70" s="44"/>
       <c r="K70" s="12"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
-      <c r="P70" s="45"/>
+      <c r="P70" s="34"/>
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
@@ -5449,12 +5474,12 @@
       <c r="X70" s="1"/>
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
-      <c r="AA70" s="43"/>
+      <c r="AA70" s="32"/>
       <c r="AB70" s="1"/>
       <c r="AC70" s="1"/>
     </row>
     <row r="71" spans="2:29">
-      <c r="B71" s="1"/>
+      <c r="B71" s="44"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -5462,13 +5487,13 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
+      <c r="J71" s="44"/>
       <c r="K71" s="12"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
-      <c r="P71" s="45"/>
+      <c r="P71" s="34"/>
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
@@ -5479,12 +5504,12 @@
       <c r="X71" s="1"/>
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
-      <c r="AA71" s="43"/>
+      <c r="AA71" s="32"/>
       <c r="AB71" s="1"/>
       <c r="AC71" s="1"/>
     </row>
     <row r="72" spans="2:29">
-      <c r="B72" s="1"/>
+      <c r="B72" s="44"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -5492,13 +5517,13 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
+      <c r="J72" s="44"/>
       <c r="K72" s="12"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
-      <c r="P72" s="45"/>
+      <c r="P72" s="34"/>
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
@@ -5509,12 +5534,12 @@
       <c r="X72" s="1"/>
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
-      <c r="AA72" s="43"/>
+      <c r="AA72" s="32"/>
       <c r="AB72" s="1"/>
       <c r="AC72" s="1"/>
     </row>
     <row r="73" spans="2:29">
-      <c r="B73" s="1"/>
+      <c r="B73" s="44"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -5522,13 +5547,13 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
+      <c r="J73" s="44"/>
       <c r="K73" s="12"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
-      <c r="P73" s="45"/>
+      <c r="P73" s="34"/>
       <c r="Q73" s="1"/>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
@@ -5539,12 +5564,12 @@
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
-      <c r="AA73" s="43"/>
+      <c r="AA73" s="32"/>
       <c r="AB73" s="1"/>
       <c r="AC73" s="1"/>
     </row>
     <row r="74" spans="2:29">
-      <c r="B74" s="1"/>
+      <c r="B74" s="44"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -5552,13 +5577,13 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
+      <c r="J74" s="44"/>
       <c r="K74" s="12"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
-      <c r="P74" s="45"/>
+      <c r="P74" s="34"/>
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
       <c r="S74" s="1"/>
@@ -5569,12 +5594,12 @@
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
-      <c r="AA74" s="43"/>
+      <c r="AA74" s="32"/>
       <c r="AB74" s="1"/>
       <c r="AC74" s="1"/>
     </row>
     <row r="75" spans="2:29">
-      <c r="B75" s="1"/>
+      <c r="B75" s="44"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -5582,13 +5607,13 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
+      <c r="J75" s="44"/>
       <c r="K75" s="12"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
-      <c r="P75" s="45"/>
+      <c r="P75" s="34"/>
       <c r="Q75" s="1"/>
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
@@ -5599,12 +5624,12 @@
       <c r="X75" s="1"/>
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
-      <c r="AA75" s="43"/>
+      <c r="AA75" s="32"/>
       <c r="AB75" s="1"/>
       <c r="AC75" s="1"/>
     </row>
     <row r="76" spans="2:29">
-      <c r="B76" s="1"/>
+      <c r="B76" s="44"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -5612,13 +5637,13 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
+      <c r="J76" s="44"/>
       <c r="K76" s="12"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
-      <c r="P76" s="45"/>
+      <c r="P76" s="34"/>
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
@@ -5629,12 +5654,12 @@
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
-      <c r="AA76" s="43"/>
+      <c r="AA76" s="32"/>
       <c r="AB76" s="1"/>
       <c r="AC76" s="1"/>
     </row>
     <row r="77" spans="2:29">
-      <c r="B77" s="1"/>
+      <c r="B77" s="44"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -5642,13 +5667,13 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
+      <c r="J77" s="44"/>
       <c r="K77" s="12"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
-      <c r="P77" s="45"/>
+      <c r="P77" s="34"/>
       <c r="Q77" s="1"/>
       <c r="R77" s="1"/>
       <c r="S77" s="1"/>
@@ -5659,12 +5684,12 @@
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
-      <c r="AA77" s="43"/>
+      <c r="AA77" s="32"/>
       <c r="AB77" s="1"/>
       <c r="AC77" s="1"/>
     </row>
     <row r="78" spans="2:29">
-      <c r="B78" s="1"/>
+      <c r="B78" s="44"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -5672,13 +5697,13 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
+      <c r="J78" s="44"/>
       <c r="K78" s="12"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
-      <c r="P78" s="45"/>
+      <c r="P78" s="34"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
       <c r="S78" s="1"/>
@@ -5689,12 +5714,12 @@
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
-      <c r="AA78" s="43"/>
+      <c r="AA78" s="32"/>
       <c r="AB78" s="1"/>
       <c r="AC78" s="1"/>
     </row>
     <row r="79" spans="2:29">
-      <c r="B79" s="1"/>
+      <c r="B79" s="44"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -5702,13 +5727,13 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
+      <c r="J79" s="44"/>
       <c r="K79" s="12"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
-      <c r="P79" s="45"/>
+      <c r="P79" s="34"/>
       <c r="Q79" s="1"/>
       <c r="R79" s="1"/>
       <c r="S79" s="1"/>
@@ -5719,12 +5744,12 @@
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
-      <c r="AA79" s="43"/>
+      <c r="AA79" s="32"/>
       <c r="AB79" s="1"/>
       <c r="AC79" s="1"/>
     </row>
     <row r="80" spans="2:29">
-      <c r="B80" s="1"/>
+      <c r="B80" s="44"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -5732,13 +5757,13 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
+      <c r="J80" s="44"/>
       <c r="K80" s="12"/>
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
-      <c r="P80" s="45"/>
+      <c r="P80" s="34"/>
       <c r="Q80" s="1"/>
       <c r="R80" s="1"/>
       <c r="S80" s="1"/>
@@ -5749,12 +5774,12 @@
       <c r="X80" s="1"/>
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
-      <c r="AA80" s="43"/>
+      <c r="AA80" s="32"/>
       <c r="AB80" s="1"/>
       <c r="AC80" s="1"/>
     </row>
     <row r="81" spans="2:29">
-      <c r="B81" s="1"/>
+      <c r="B81" s="44"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -5762,13 +5787,13 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
+      <c r="J81" s="44"/>
       <c r="K81" s="12"/>
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
-      <c r="P81" s="45"/>
+      <c r="P81" s="34"/>
       <c r="Q81" s="1"/>
       <c r="R81" s="1"/>
       <c r="S81" s="1"/>
@@ -5779,12 +5804,12 @@
       <c r="X81" s="1"/>
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
-      <c r="AA81" s="43"/>
+      <c r="AA81" s="32"/>
       <c r="AB81" s="1"/>
       <c r="AC81" s="1"/>
     </row>
     <row r="82" spans="2:29">
-      <c r="B82" s="1"/>
+      <c r="B82" s="44"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -5792,13 +5817,13 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
+      <c r="J82" s="44"/>
       <c r="K82" s="12"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
-      <c r="P82" s="45"/>
+      <c r="P82" s="34"/>
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
       <c r="S82" s="1"/>
@@ -5809,12 +5834,12 @@
       <c r="X82" s="1"/>
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
-      <c r="AA82" s="43"/>
+      <c r="AA82" s="32"/>
       <c r="AB82" s="1"/>
       <c r="AC82" s="1"/>
     </row>
     <row r="83" spans="2:29">
-      <c r="B83" s="1"/>
+      <c r="B83" s="44"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -5822,13 +5847,13 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
+      <c r="J83" s="44"/>
       <c r="K83" s="12"/>
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
-      <c r="P83" s="45"/>
+      <c r="P83" s="34"/>
       <c r="Q83" s="1"/>
       <c r="R83" s="1"/>
       <c r="S83" s="1"/>
@@ -5839,12 +5864,12 @@
       <c r="X83" s="1"/>
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
-      <c r="AA83" s="43"/>
+      <c r="AA83" s="32"/>
       <c r="AB83" s="1"/>
       <c r="AC83" s="1"/>
     </row>
     <row r="84" spans="2:29">
-      <c r="B84" s="1"/>
+      <c r="B84" s="44"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -5852,13 +5877,13 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
+      <c r="J84" s="44"/>
       <c r="K84" s="12"/>
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
-      <c r="P84" s="45"/>
+      <c r="P84" s="34"/>
       <c r="Q84" s="1"/>
       <c r="R84" s="1"/>
       <c r="S84" s="1"/>
@@ -5869,12 +5894,12 @@
       <c r="X84" s="1"/>
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
-      <c r="AA84" s="43"/>
+      <c r="AA84" s="32"/>
       <c r="AB84" s="1"/>
       <c r="AC84" s="1"/>
     </row>
     <row r="85" spans="2:29">
-      <c r="B85" s="1"/>
+      <c r="B85" s="44"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -5882,13 +5907,13 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
+      <c r="J85" s="44"/>
       <c r="K85" s="12"/>
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
-      <c r="P85" s="45"/>
+      <c r="P85" s="34"/>
       <c r="Q85" s="1"/>
       <c r="R85" s="1"/>
       <c r="S85" s="1"/>
@@ -5899,12 +5924,12 @@
       <c r="X85" s="1"/>
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
-      <c r="AA85" s="43"/>
+      <c r="AA85" s="32"/>
       <c r="AB85" s="1"/>
       <c r="AC85" s="1"/>
     </row>
     <row r="86" spans="2:29">
-      <c r="B86" s="1"/>
+      <c r="B86" s="44"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -5912,13 +5937,13 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
+      <c r="J86" s="44"/>
       <c r="K86" s="12"/>
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
-      <c r="P86" s="45"/>
+      <c r="P86" s="34"/>
       <c r="Q86" s="1"/>
       <c r="R86" s="1"/>
       <c r="S86" s="1"/>
@@ -5929,12 +5954,12 @@
       <c r="X86" s="1"/>
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
-      <c r="AA86" s="43"/>
+      <c r="AA86" s="32"/>
       <c r="AB86" s="1"/>
       <c r="AC86" s="1"/>
     </row>
     <row r="87" spans="2:29">
-      <c r="B87" s="1"/>
+      <c r="B87" s="44"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -5942,13 +5967,13 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
+      <c r="J87" s="44"/>
       <c r="K87" s="12"/>
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
-      <c r="P87" s="45"/>
+      <c r="P87" s="34"/>
       <c r="Q87" s="1"/>
       <c r="R87" s="1"/>
       <c r="S87" s="1"/>
@@ -5959,12 +5984,12 @@
       <c r="X87" s="1"/>
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
-      <c r="AA87" s="43"/>
+      <c r="AA87" s="32"/>
       <c r="AB87" s="1"/>
       <c r="AC87" s="1"/>
     </row>
     <row r="88" spans="2:29">
-      <c r="B88" s="1"/>
+      <c r="B88" s="44"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -5972,13 +5997,13 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
+      <c r="J88" s="44"/>
       <c r="K88" s="12"/>
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
-      <c r="P88" s="45"/>
+      <c r="P88" s="34"/>
       <c r="Q88" s="1"/>
       <c r="R88" s="1"/>
       <c r="S88" s="1"/>
@@ -5989,12 +6014,12 @@
       <c r="X88" s="1"/>
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
-      <c r="AA88" s="43"/>
+      <c r="AA88" s="32"/>
       <c r="AB88" s="1"/>
       <c r="AC88" s="1"/>
     </row>
     <row r="89" spans="2:29">
-      <c r="B89" s="1"/>
+      <c r="B89" s="44"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -6002,13 +6027,13 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
+      <c r="J89" s="44"/>
       <c r="K89" s="12"/>
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
-      <c r="P89" s="45"/>
+      <c r="P89" s="34"/>
       <c r="Q89" s="1"/>
       <c r="R89" s="1"/>
       <c r="S89" s="1"/>
@@ -6019,7 +6044,7 @@
       <c r="X89" s="1"/>
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
-      <c r="AA89" s="43"/>
+      <c r="AA89" s="32"/>
       <c r="AB89" s="1"/>
       <c r="AC89" s="1"/>
     </row>
@@ -6063,9 +6088,10 @@
     <hyperlink ref="J7" r:id="rId4" xr:uid="{AB6658AC-7F01-49F2-82E0-F1A2D10908F6}"/>
     <hyperlink ref="J8" r:id="rId5" xr:uid="{5CA01257-738E-4A33-8A08-C9103B0614CF}"/>
     <hyperlink ref="J9" r:id="rId6" xr:uid="{C04120D7-8780-496F-853D-56CA6BF1373D}"/>
+    <hyperlink ref="J6" r:id="rId7" xr:uid="{A44A30DB-B8BD-4207-B5C1-2DDC4B342435}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId7"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId8"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="11">
@@ -6149,12 +6175,12 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="40.44140625" customWidth="1"/>
+    <col min="2" max="2" width="40.44140625" style="48" customWidth="1"/>
     <col min="3" max="3" width="15.109375" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" customWidth="1"/>
@@ -6164,7 +6190,7 @@
     <col min="9" max="9" width="21.88671875" customWidth="1"/>
     <col min="10" max="10" width="18.33203125" customWidth="1"/>
     <col min="11" max="11" width="19.33203125" customWidth="1"/>
-    <col min="12" max="12" width="21.88671875" customWidth="1"/>
+    <col min="12" max="12" width="21.88671875" style="48" customWidth="1"/>
     <col min="13" max="13" width="22" customWidth="1"/>
     <col min="14" max="14" width="12.5546875" customWidth="1"/>
     <col min="15" max="15" width="22.44140625" customWidth="1"/>
@@ -6188,51 +6214,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:36" ht="18">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="J1" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="34" t="s">
-        <v>257</v>
-      </c>
-      <c r="J1" s="38" t="s">
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="42" t="s">
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="42"/>
+    </row>
+    <row r="2" spans="2:36" ht="187.2">
+      <c r="B2" s="44" t="s">
         <v>121</v>
-      </c>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="41"/>
-    </row>
-    <row r="2" spans="2:36" ht="187.2">
-      <c r="B2" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
@@ -6244,7 +6270,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>7</v>
@@ -6252,8 +6278,8 @@
       <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="28" t="s">
-        <v>269</v>
+      <c r="I2" s="25" t="s">
+        <v>268</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>9</v>
@@ -6261,7 +6287,7 @@
       <c r="K2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="44" t="s">
         <v>11</v>
       </c>
       <c r="M2" s="10" t="s">
@@ -6277,7 +6303,7 @@
         <v>12</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R2" s="4" t="s">
         <v>14</v>
@@ -6295,7 +6321,7 @@
         <v>19</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="X2" s="4" t="s">
         <v>21</v>
@@ -6326,14 +6352,14 @@
       </c>
     </row>
     <row r="3" spans="2:36">
-      <c r="B3" s="1" t="s">
-        <v>125</v>
+      <c r="B3" s="44" t="s">
+        <v>124</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>53</v>
@@ -6348,7 +6374,7 @@
         <v>55</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>56</v>
@@ -6356,7 +6382,7 @@
       <c r="K3" s="1">
         <v>3168330319</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="44" t="s">
         <v>57</v>
       </c>
       <c r="M3" s="1" t="s">
@@ -6381,7 +6407,7 @@
         <v>39</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>60</v>
@@ -6421,14 +6447,14 @@
       </c>
     </row>
     <row r="4" spans="2:36">
-      <c r="B4" s="1" t="s">
-        <v>128</v>
+      <c r="B4" s="44" t="s">
+        <v>127</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>53</v>
@@ -6443,7 +6469,7 @@
         <v>55</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>56</v>
@@ -6451,7 +6477,7 @@
       <c r="K4" s="1">
         <v>3168330319</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="44" t="s">
         <v>57</v>
       </c>
       <c r="M4" s="1" t="s">
@@ -6476,7 +6502,7 @@
         <v>58</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>60</v>
@@ -6516,14 +6542,14 @@
       </c>
     </row>
     <row r="5" spans="2:36">
-      <c r="B5" s="1" t="s">
-        <v>130</v>
+      <c r="B5" s="44" t="s">
+        <v>129</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>53</v>
@@ -6538,7 +6564,7 @@
         <v>55</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>56</v>
@@ -6546,7 +6572,7 @@
       <c r="K5" s="1">
         <v>3168330319</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="44" t="s">
         <v>57</v>
       </c>
       <c r="M5" s="1" t="s">
@@ -6569,7 +6595,7 @@
       </c>
       <c r="S5" s="14"/>
       <c r="T5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>60</v>
@@ -6609,38 +6635,38 @@
       </c>
     </row>
     <row r="6" spans="2:36">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="K6" s="1">
         <v>3214403765</v>
       </c>
-      <c r="L6" s="12" t="s">
-        <v>139</v>
+      <c r="L6" s="44" t="s">
+        <v>138</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>35</v>
@@ -6664,7 +6690,7 @@
         <v>39</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>60</v>
@@ -6682,7 +6708,7 @@
         <v>45</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AA6" s="1" t="s">
         <v>64</v>
@@ -6704,47 +6730,47 @@
       </c>
     </row>
     <row r="7" spans="2:36">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="D7" s="1">
         <v>2010</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>81</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="K7" s="1">
         <v>3197987259</v>
       </c>
-      <c r="L7" s="12" t="s">
-        <v>95</v>
+      <c r="L7" s="44" t="s">
+        <v>94</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N7" s="1">
         <v>3197987259</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P7" s="1">
         <v>4</v>
@@ -6759,7 +6785,7 @@
         <v>39</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>60</v>
@@ -6799,47 +6825,47 @@
       </c>
     </row>
     <row r="8" spans="2:36" ht="18">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="K8" s="20">
+        <v>3054540271</v>
+      </c>
+      <c r="L8" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="K8" s="21">
-        <v>3054540271</v>
-      </c>
-      <c r="L8" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="N8" s="1">
         <v>3156026306</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P8" s="1">
         <v>1</v>
@@ -6854,28 +6880,28 @@
         <v>39</v>
       </c>
       <c r="T8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="U8" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="V8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X8" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>45</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AB8" s="1" t="s">
         <v>48</v>
@@ -6884,7 +6910,7 @@
         <v>42</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AE8" s="1" t="s">
         <v>42</v>
@@ -6892,50 +6918,50 @@
       <c r="AF8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AJ8" s="31"/>
+      <c r="AJ8" s="28"/>
     </row>
     <row r="9" spans="2:36" ht="22.2">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="K9" s="21">
+      <c r="K9" s="20">
         <v>3158433152</v>
       </c>
-      <c r="L9" s="22" t="s">
-        <v>253</v>
+      <c r="L9" s="49" t="s">
+        <v>252</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N9" s="1">
         <v>3156026306</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P9" s="1">
         <v>1</v>
@@ -6947,10 +6973,10 @@
         <v>37</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>60</v>
@@ -6962,16 +6988,16 @@
         <v>42</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AB9" s="1" t="s">
         <v>48</v>
@@ -6980,7 +7006,7 @@
         <v>42</v>
       </c>
       <c r="AD9" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AE9" s="1" t="s">
         <v>42</v>
@@ -6990,45 +7016,45 @@
       </c>
     </row>
     <row r="10" spans="2:36">
-      <c r="B10" s="1" t="s">
-        <v>151</v>
+      <c r="B10" s="44" t="s">
+        <v>150</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>256</v>
+        <v>125</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>255</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K10" s="1">
         <v>3156026306</v>
       </c>
-      <c r="L10" s="25" t="s">
-        <v>103</v>
+      <c r="L10" s="44" t="s">
+        <v>102</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N10" s="1">
         <v>3156026306</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P10" s="1">
         <v>1</v>
@@ -7040,31 +7066,31 @@
         <v>37</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="U10" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X10" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="Y10" s="1" t="s">
         <v>45</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AB10" s="1" t="s">
         <v>48</v>
@@ -7073,7 +7099,7 @@
         <v>42</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AE10" s="1" t="s">
         <v>42</v>
@@ -7083,36 +7109,36 @@
       </c>
     </row>
     <row r="11" spans="2:36">
-      <c r="B11" s="1" t="s">
-        <v>153</v>
+      <c r="B11" s="44" t="s">
+        <v>152</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
+      </c>
+      <c r="L11" s="44" t="s">
+        <v>142</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>35</v>
@@ -7136,7 +7162,7 @@
         <v>39</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>60</v>
@@ -7154,7 +7180,7 @@
         <v>45</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AA11" s="1" t="s">
         <v>64</v>
@@ -7176,45 +7202,45 @@
       </c>
     </row>
     <row r="12" spans="2:36">
-      <c r="B12" s="1" t="s">
-        <v>155</v>
+      <c r="B12" s="44" t="s">
+        <v>154</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D12" s="1">
         <v>2015</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K12">
         <v>3005558808</v>
       </c>
-      <c r="L12" t="s">
-        <v>143</v>
+      <c r="L12" s="48" t="s">
+        <v>142</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N12" s="1">
         <v>3108736412</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P12" s="1">
         <v>2</v>
@@ -7226,10 +7252,10 @@
         <v>37</v>
       </c>
       <c r="S12" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>60</v>
@@ -7250,7 +7276,7 @@
         <v>47</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AB12" s="1" t="s">
         <v>48</v>
@@ -7269,33 +7295,33 @@
       </c>
     </row>
     <row r="13" spans="2:36">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="D13" s="1">
         <v>2020</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
+      <c r="L13" s="44"/>
       <c r="M13" s="1" t="s">
         <v>35</v>
       </c>
@@ -7318,7 +7344,7 @@
         <v>39</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>60</v>
@@ -7336,7 +7362,7 @@
         <v>45</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AA13" s="1" t="s">
         <v>64</v>
@@ -7358,36 +7384,36 @@
       </c>
     </row>
     <row r="14" spans="2:36">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="D14" s="1">
         <v>2018</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K14" s="1">
         <v>3013659189</v>
       </c>
-      <c r="L14" s="12" t="s">
-        <v>170</v>
+      <c r="L14" s="44" t="s">
+        <v>169</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>35</v>
@@ -7411,7 +7437,7 @@
         <v>39</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>60</v>
@@ -7429,7 +7455,7 @@
         <v>45</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AA14" s="1" t="s">
         <v>64</v>
@@ -7451,7 +7477,7 @@
       </c>
     </row>
     <row r="15" spans="2:36">
-      <c r="B15" s="1"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -7461,7 +7487,7 @@
       <c r="I15" s="12"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
+      <c r="L15" s="44"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -7487,13 +7513,13 @@
         <v>61</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB15" s="1" t="s">
         <v>48</v>
@@ -7506,7 +7532,7 @@
       </c>
     </row>
     <row r="16" spans="2:36">
-      <c r="B16" s="1"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -7516,7 +7542,7 @@
       <c r="I16" s="12"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
+      <c r="L16" s="44"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -7542,13 +7568,13 @@
         <v>61</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB16" s="1" t="s">
         <v>48</v>
@@ -7561,7 +7587,7 @@
       </c>
     </row>
     <row r="17" spans="2:32">
-      <c r="B17" s="1"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -7571,7 +7597,7 @@
       <c r="I17" s="12"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
+      <c r="L17" s="44"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -7597,13 +7623,13 @@
         <v>61</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB17" s="1" t="s">
         <v>48</v>
@@ -7616,7 +7642,7 @@
       </c>
     </row>
     <row r="18" spans="2:32">
-      <c r="B18" s="1"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -7626,7 +7652,7 @@
       <c r="I18" s="12"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
+      <c r="L18" s="44"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -7652,13 +7678,13 @@
         <v>61</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB18" s="1" t="s">
         <v>48</v>
@@ -7671,7 +7697,7 @@
       </c>
     </row>
     <row r="19" spans="2:32">
-      <c r="B19" s="1"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -7681,7 +7707,7 @@
       <c r="I19" s="12"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
+      <c r="L19" s="44"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -7707,13 +7733,13 @@
         <v>61</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB19" s="1" t="s">
         <v>48</v>
@@ -7726,7 +7752,7 @@
       </c>
     </row>
     <row r="20" spans="2:32">
-      <c r="B20" s="1"/>
+      <c r="B20" s="44"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -7736,7 +7762,7 @@
       <c r="I20" s="12"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
+      <c r="L20" s="44"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -7762,13 +7788,13 @@
         <v>61</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA20" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB20" s="1" t="s">
         <v>48</v>
@@ -7781,7 +7807,7 @@
       </c>
     </row>
     <row r="21" spans="2:32">
-      <c r="B21" s="1"/>
+      <c r="B21" s="44"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -7791,7 +7817,7 @@
       <c r="I21" s="12"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
+      <c r="L21" s="44"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -7817,13 +7843,13 @@
         <v>61</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z21" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA21" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB21" s="1" t="s">
         <v>48</v>
@@ -7836,7 +7862,7 @@
       </c>
     </row>
     <row r="22" spans="2:32">
-      <c r="B22" s="1"/>
+      <c r="B22" s="44"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -7846,7 +7872,7 @@
       <c r="I22" s="12"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
+      <c r="L22" s="44"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -7872,13 +7898,13 @@
         <v>61</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z22" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA22" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB22" s="1" t="s">
         <v>48</v>
@@ -7891,7 +7917,7 @@
       </c>
     </row>
     <row r="23" spans="2:32">
-      <c r="B23" s="1"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -7901,7 +7927,7 @@
       <c r="I23" s="12"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
+      <c r="L23" s="44"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
@@ -7927,13 +7953,13 @@
         <v>61</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z23" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA23" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB23" s="1" t="s">
         <v>48</v>
@@ -7946,7 +7972,7 @@
       </c>
     </row>
     <row r="24" spans="2:32">
-      <c r="B24" s="1"/>
+      <c r="B24" s="44"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -7956,7 +7982,7 @@
       <c r="I24" s="12"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
+      <c r="L24" s="44"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -7982,13 +8008,13 @@
         <v>61</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA24" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB24" s="1" t="s">
         <v>48</v>
@@ -8001,7 +8027,7 @@
       </c>
     </row>
     <row r="25" spans="2:32">
-      <c r="B25" s="1"/>
+      <c r="B25" s="44"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -8011,7 +8037,7 @@
       <c r="I25" s="12"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
+      <c r="L25" s="44"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -8037,13 +8063,13 @@
         <v>61</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA25" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB25" s="1" t="s">
         <v>48</v>
@@ -8056,7 +8082,7 @@
       </c>
     </row>
     <row r="26" spans="2:32">
-      <c r="B26" s="1"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -8066,7 +8092,7 @@
       <c r="I26" s="12"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
+      <c r="L26" s="44"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -8092,13 +8118,13 @@
         <v>61</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA26" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB26" s="1" t="s">
         <v>48</v>
@@ -8111,7 +8137,7 @@
       </c>
     </row>
     <row r="27" spans="2:32">
-      <c r="B27" s="1"/>
+      <c r="B27" s="44"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -8121,7 +8147,7 @@
       <c r="I27" s="12"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
+      <c r="L27" s="44"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
@@ -8147,13 +8173,13 @@
         <v>61</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA27" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB27" s="1" t="s">
         <v>48</v>
@@ -8166,7 +8192,7 @@
       </c>
     </row>
     <row r="28" spans="2:32">
-      <c r="B28" s="1"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -8176,7 +8202,7 @@
       <c r="I28" s="12"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
+      <c r="L28" s="44"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
@@ -8202,13 +8228,13 @@
         <v>61</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z28" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA28" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB28" s="1" t="s">
         <v>48</v>
@@ -8221,7 +8247,7 @@
       </c>
     </row>
     <row r="29" spans="2:32">
-      <c r="B29" s="1"/>
+      <c r="B29" s="44"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -8231,7 +8257,7 @@
       <c r="I29" s="12"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
+      <c r="L29" s="44"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
@@ -8257,13 +8283,13 @@
         <v>61</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z29" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA29" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB29" s="1" t="s">
         <v>48</v>
@@ -8276,7 +8302,7 @@
       </c>
     </row>
     <row r="30" spans="2:32">
-      <c r="B30" s="1"/>
+      <c r="B30" s="44"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -8286,7 +8312,7 @@
       <c r="I30" s="12"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
+      <c r="L30" s="44"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
@@ -8312,13 +8338,13 @@
         <v>61</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z30" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA30" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB30" s="1" t="s">
         <v>48</v>
@@ -8331,7 +8357,7 @@
       </c>
     </row>
     <row r="31" spans="2:32">
-      <c r="B31" s="1"/>
+      <c r="B31" s="44"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -8341,7 +8367,7 @@
       <c r="I31" s="12"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
+      <c r="L31" s="44"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
@@ -8367,13 +8393,13 @@
         <v>61</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z31" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA31" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB31" s="1" t="s">
         <v>48</v>
@@ -8386,7 +8412,7 @@
       </c>
     </row>
     <row r="32" spans="2:32">
-      <c r="B32" s="1"/>
+      <c r="B32" s="44"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -8396,7 +8422,7 @@
       <c r="I32" s="12"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
+      <c r="L32" s="44"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -8422,13 +8448,13 @@
         <v>61</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z32" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA32" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB32" s="1" t="s">
         <v>48</v>
@@ -8441,7 +8467,7 @@
       </c>
     </row>
     <row r="33" spans="2:32">
-      <c r="B33" s="1"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -8451,7 +8477,7 @@
       <c r="I33" s="12"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
+      <c r="L33" s="44"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -8477,13 +8503,13 @@
         <v>61</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z33" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA33" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB33" s="1" t="s">
         <v>48</v>
@@ -8496,7 +8522,7 @@
       </c>
     </row>
     <row r="34" spans="2:32">
-      <c r="B34" s="1"/>
+      <c r="B34" s="44"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -8506,7 +8532,7 @@
       <c r="I34" s="12"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
+      <c r="L34" s="44"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -8532,13 +8558,13 @@
         <v>61</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z34" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA34" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB34" s="1" t="s">
         <v>48</v>
@@ -8551,7 +8577,7 @@
       </c>
     </row>
     <row r="35" spans="2:32">
-      <c r="B35" s="1"/>
+      <c r="B35" s="44"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -8561,7 +8587,7 @@
       <c r="I35" s="12"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
+      <c r="L35" s="44"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
@@ -8587,13 +8613,13 @@
         <v>61</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z35" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA35" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB35" s="1" t="s">
         <v>48</v>
@@ -8606,7 +8632,7 @@
       </c>
     </row>
     <row r="36" spans="2:32">
-      <c r="B36" s="1"/>
+      <c r="B36" s="44"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -8616,7 +8642,7 @@
       <c r="I36" s="12"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
+      <c r="L36" s="44"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
@@ -8642,13 +8668,13 @@
         <v>61</v>
       </c>
       <c r="Y36" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z36" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA36" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB36" s="1" t="s">
         <v>48</v>
@@ -8661,7 +8687,7 @@
       </c>
     </row>
     <row r="37" spans="2:32">
-      <c r="B37" s="1"/>
+      <c r="B37" s="44"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -8671,7 +8697,7 @@
       <c r="I37" s="12"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
+      <c r="L37" s="44"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
@@ -8697,13 +8723,13 @@
         <v>61</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z37" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA37" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB37" s="1" t="s">
         <v>48</v>
@@ -8716,7 +8742,7 @@
       </c>
     </row>
     <row r="38" spans="2:32">
-      <c r="B38" s="1"/>
+      <c r="B38" s="44"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -8726,7 +8752,7 @@
       <c r="I38" s="12"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
+      <c r="L38" s="44"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
@@ -8752,13 +8778,13 @@
         <v>61</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z38" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA38" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB38" s="1" t="s">
         <v>48</v>
@@ -8771,7 +8797,7 @@
       </c>
     </row>
     <row r="39" spans="2:32">
-      <c r="B39" s="1"/>
+      <c r="B39" s="44"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -8781,7 +8807,7 @@
       <c r="I39" s="12"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
+      <c r="L39" s="44"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
@@ -8807,13 +8833,13 @@
         <v>61</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z39" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA39" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB39" s="1" t="s">
         <v>48</v>
@@ -8826,7 +8852,7 @@
       </c>
     </row>
     <row r="40" spans="2:32">
-      <c r="B40" s="1"/>
+      <c r="B40" s="44"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -8836,7 +8862,7 @@
       <c r="I40" s="12"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
+      <c r="L40" s="44"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
@@ -8862,13 +8888,13 @@
         <v>61</v>
       </c>
       <c r="Y40" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z40" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA40" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB40" s="1" t="s">
         <v>48</v>
@@ -8881,7 +8907,7 @@
       </c>
     </row>
     <row r="41" spans="2:32">
-      <c r="B41" s="1"/>
+      <c r="B41" s="44"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -8891,7 +8917,7 @@
       <c r="I41" s="12"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
+      <c r="L41" s="44"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
@@ -8917,13 +8943,13 @@
         <v>61</v>
       </c>
       <c r="Y41" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z41" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA41" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB41" s="1" t="s">
         <v>48</v>
@@ -8936,7 +8962,7 @@
       </c>
     </row>
     <row r="42" spans="2:32">
-      <c r="B42" s="1"/>
+      <c r="B42" s="44"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -8946,7 +8972,7 @@
       <c r="I42" s="12"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
+      <c r="L42" s="44"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
@@ -8972,13 +8998,13 @@
         <v>61</v>
       </c>
       <c r="Y42" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z42" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA42" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB42" s="1" t="s">
         <v>48</v>
@@ -8991,7 +9017,7 @@
       </c>
     </row>
     <row r="43" spans="2:32">
-      <c r="B43" s="1"/>
+      <c r="B43" s="44"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -9001,7 +9027,7 @@
       <c r="I43" s="12"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
+      <c r="L43" s="44"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
@@ -9027,13 +9053,13 @@
         <v>61</v>
       </c>
       <c r="Y43" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z43" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA43" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB43" s="1" t="s">
         <v>48</v>
@@ -9046,7 +9072,7 @@
       </c>
     </row>
     <row r="44" spans="2:32">
-      <c r="B44" s="1"/>
+      <c r="B44" s="44"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -9056,7 +9082,7 @@
       <c r="I44" s="12"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
+      <c r="L44" s="44"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
@@ -9082,13 +9108,13 @@
         <v>61</v>
       </c>
       <c r="Y44" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z44" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA44" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB44" s="1" t="s">
         <v>48</v>
@@ -9101,7 +9127,7 @@
       </c>
     </row>
     <row r="45" spans="2:32">
-      <c r="B45" s="1"/>
+      <c r="B45" s="44"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -9111,7 +9137,7 @@
       <c r="I45" s="12"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
+      <c r="L45" s="44"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
@@ -9137,13 +9163,13 @@
         <v>61</v>
       </c>
       <c r="Y45" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z45" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA45" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB45" s="1" t="s">
         <v>48</v>
@@ -9156,7 +9182,7 @@
       </c>
     </row>
     <row r="46" spans="2:32">
-      <c r="B46" s="1"/>
+      <c r="B46" s="44"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -9166,7 +9192,7 @@
       <c r="I46" s="12"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
+      <c r="L46" s="44"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
@@ -9192,13 +9218,13 @@
         <v>61</v>
       </c>
       <c r="Y46" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z46" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA46" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB46" s="1" t="s">
         <v>48</v>
@@ -9211,7 +9237,7 @@
       </c>
     </row>
     <row r="47" spans="2:32">
-      <c r="B47" s="1"/>
+      <c r="B47" s="44"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -9221,7 +9247,7 @@
       <c r="I47" s="12"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
+      <c r="L47" s="44"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
@@ -9247,13 +9273,13 @@
         <v>61</v>
       </c>
       <c r="Y47" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z47" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA47" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB47" s="1" t="s">
         <v>48</v>
@@ -9266,7 +9292,7 @@
       </c>
     </row>
     <row r="48" spans="2:32">
-      <c r="B48" s="1"/>
+      <c r="B48" s="44"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -9276,7 +9302,7 @@
       <c r="I48" s="12"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
+      <c r="L48" s="44"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
@@ -9302,13 +9328,13 @@
         <v>61</v>
       </c>
       <c r="Y48" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z48" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA48" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB48" s="1" t="s">
         <v>48</v>
@@ -9321,7 +9347,7 @@
       </c>
     </row>
     <row r="49" spans="2:32">
-      <c r="B49" s="1"/>
+      <c r="B49" s="44"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -9331,7 +9357,7 @@
       <c r="I49" s="12"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
+      <c r="L49" s="44"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
@@ -9357,13 +9383,13 @@
         <v>61</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z49" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA49" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB49" s="1" t="s">
         <v>48</v>
@@ -9376,7 +9402,7 @@
       </c>
     </row>
     <row r="50" spans="2:32">
-      <c r="B50" s="1"/>
+      <c r="B50" s="44"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -9386,7 +9412,7 @@
       <c r="I50" s="12"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
+      <c r="L50" s="44"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
@@ -9412,13 +9438,13 @@
         <v>61</v>
       </c>
       <c r="Y50" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z50" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA50" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB50" s="1" t="s">
         <v>48</v>
@@ -9431,7 +9457,7 @@
       </c>
     </row>
     <row r="51" spans="2:32">
-      <c r="B51" s="1"/>
+      <c r="B51" s="44"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -9441,7 +9467,7 @@
       <c r="I51" s="12"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
+      <c r="L51" s="44"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
@@ -9467,13 +9493,13 @@
         <v>61</v>
       </c>
       <c r="Y51" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z51" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA51" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB51" s="1" t="s">
         <v>48</v>
@@ -9486,7 +9512,7 @@
       </c>
     </row>
     <row r="52" spans="2:32">
-      <c r="B52" s="1"/>
+      <c r="B52" s="44"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -9496,7 +9522,7 @@
       <c r="I52" s="12"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
+      <c r="L52" s="44"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
@@ -9522,13 +9548,13 @@
         <v>61</v>
       </c>
       <c r="Y52" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z52" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA52" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB52" s="1" t="s">
         <v>48</v>
@@ -9541,7 +9567,7 @@
       </c>
     </row>
     <row r="53" spans="2:32">
-      <c r="B53" s="1"/>
+      <c r="B53" s="44"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -9551,7 +9577,7 @@
       <c r="I53" s="12"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
+      <c r="L53" s="44"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
@@ -9577,13 +9603,13 @@
         <v>61</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z53" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA53" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB53" s="1" t="s">
         <v>48</v>
@@ -9596,7 +9622,7 @@
       </c>
     </row>
     <row r="54" spans="2:32">
-      <c r="B54" s="1"/>
+      <c r="B54" s="44"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -9606,7 +9632,7 @@
       <c r="I54" s="12"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
+      <c r="L54" s="44"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
@@ -9632,13 +9658,13 @@
         <v>61</v>
       </c>
       <c r="Y54" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z54" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA54" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB54" s="1" t="s">
         <v>48</v>
@@ -9651,7 +9677,7 @@
       </c>
     </row>
     <row r="55" spans="2:32">
-      <c r="B55" s="1"/>
+      <c r="B55" s="44"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -9661,7 +9687,7 @@
       <c r="I55" s="12"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
+      <c r="L55" s="44"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
@@ -9687,13 +9713,13 @@
         <v>61</v>
       </c>
       <c r="Y55" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z55" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA55" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB55" s="1" t="s">
         <v>48</v>
@@ -9706,7 +9732,7 @@
       </c>
     </row>
     <row r="56" spans="2:32">
-      <c r="B56" s="1"/>
+      <c r="B56" s="44"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -9716,7 +9742,7 @@
       <c r="I56" s="12"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
+      <c r="L56" s="44"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
@@ -9742,13 +9768,13 @@
         <v>61</v>
       </c>
       <c r="Y56" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z56" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA56" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB56" s="1" t="s">
         <v>48</v>
@@ -10090,19 +10116,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497AB5D1-7E73-45CA-AA6F-2BD3A01FFF56}">
   <dimension ref="B1:V47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="48" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5546875" customWidth="1"/>
     <col min="4" max="4" width="24.44140625" customWidth="1"/>
     <col min="5" max="5" width="23.88671875" customWidth="1"/>
     <col min="6" max="6" width="10.5546875" customWidth="1"/>
     <col min="7" max="7" width="11.44140625" customWidth="1"/>
-    <col min="8" max="8" width="25.5546875" customWidth="1"/>
+    <col min="8" max="8" width="25.5546875" style="48" customWidth="1"/>
     <col min="9" max="9" width="8.44140625" customWidth="1"/>
     <col min="10" max="12" width="21.5546875" customWidth="1"/>
     <col min="13" max="14" width="15.109375" customWidth="1"/>
@@ -10117,127 +10143,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:22" ht="18">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="42"/>
+    </row>
+    <row r="2" spans="2:22" ht="57.6">
+      <c r="B2" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="41"/>
-    </row>
-    <row r="2" spans="2:22" ht="57.6">
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="O2" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="R2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="S2" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="T2" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="V2" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:22">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="G3" s="1">
         <v>3212036711</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>63</v>
@@ -10261,36 +10287,38 @@
         <v>61</v>
       </c>
       <c r="S3" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="U3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22">
+      <c r="B4" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="U3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="2:22">
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="H4" s="44" t="s">
+        <v>271</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -10307,35 +10335,35 @@
       <c r="V4" s="1"/>
     </row>
     <row r="5" spans="2:22">
-      <c r="B5" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="C5" s="18" t="s">
+      <c r="B5" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="E5" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="G5" s="1">
         <v>3212036711</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="50" t="s">
+        <v>270</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>58</v>
@@ -10359,11 +10387,11 @@
         <v>61</v>
       </c>
       <c r="S5" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="T5" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="T5" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="U5" s="1" t="s">
         <v>42</v>
       </c>
@@ -10372,21 +10400,23 @@
       </c>
     </row>
     <row r="6" spans="2:22">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="46" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="D6" s="15" t="s">
+      <c r="E6" s="16"/>
+      <c r="F6" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="H6" s="50" t="s">
+        <v>272</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -10403,19 +10433,21 @@
       <c r="V6" s="1"/>
     </row>
     <row r="7" spans="2:22">
-      <c r="B7" s="16" t="s">
-        <v>208</v>
+      <c r="B7" s="46" t="s">
+        <v>207</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D7" s="15"/>
-      <c r="E7" s="17"/>
+      <c r="E7" s="16"/>
       <c r="F7" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="H7" s="44" t="s">
+        <v>273</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -10432,45 +10464,45 @@
       <c r="V7" s="1"/>
     </row>
     <row r="8" spans="2:22">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="46" t="s">
+        <v>208</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="D8" s="15" t="s">
+      <c r="E8" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="E8" s="17" t="s">
-        <v>211</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G8" s="1">
         <v>3005771715</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1" t="s">
         <v>43</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>39</v>
@@ -10482,11 +10514,11 @@
         <v>61</v>
       </c>
       <c r="S8" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="T8" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="T8" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="U8" s="1" t="s">
         <v>42</v>
       </c>
@@ -10495,13 +10527,13 @@
       </c>
     </row>
     <row r="9" spans="2:22">
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="H9" s="44"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -10518,13 +10550,13 @@
       <c r="V9" s="1"/>
     </row>
     <row r="10" spans="2:22">
-      <c r="B10" s="1"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="H10" s="44"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -10541,13 +10573,13 @@
       <c r="V10" s="1"/>
     </row>
     <row r="11" spans="2:22">
-      <c r="B11" s="1"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="H11" s="44"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -10564,13 +10596,13 @@
       <c r="V11" s="1"/>
     </row>
     <row r="12" spans="2:22">
-      <c r="B12" s="1"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="H12" s="44"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -10587,13 +10619,13 @@
       <c r="V12" s="1"/>
     </row>
     <row r="13" spans="2:22">
-      <c r="B13" s="1"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="H13" s="44"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -10610,13 +10642,13 @@
       <c r="V13" s="1"/>
     </row>
     <row r="14" spans="2:22">
-      <c r="B14" s="1"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="H14" s="44"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -10633,13 +10665,13 @@
       <c r="V14" s="1"/>
     </row>
     <row r="15" spans="2:22">
-      <c r="B15" s="1"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="H15" s="44"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -10656,13 +10688,13 @@
       <c r="V15" s="1"/>
     </row>
     <row r="16" spans="2:22">
-      <c r="B16" s="1"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="H16" s="44"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -10679,13 +10711,13 @@
       <c r="V16" s="1"/>
     </row>
     <row r="17" spans="2:22">
-      <c r="B17" s="1"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="H17" s="44"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -10702,13 +10734,13 @@
       <c r="V17" s="1"/>
     </row>
     <row r="18" spans="2:22">
-      <c r="B18" s="1"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="H18" s="44"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -10725,13 +10757,13 @@
       <c r="V18" s="1"/>
     </row>
     <row r="19" spans="2:22">
-      <c r="B19" s="1"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="H19" s="44"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -10748,13 +10780,13 @@
       <c r="V19" s="1"/>
     </row>
     <row r="20" spans="2:22">
-      <c r="B20" s="1"/>
+      <c r="B20" s="44"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="H20" s="44"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -10771,13 +10803,13 @@
       <c r="V20" s="1"/>
     </row>
     <row r="21" spans="2:22">
-      <c r="B21" s="1"/>
+      <c r="B21" s="44"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="H21" s="44"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -10794,13 +10826,13 @@
       <c r="V21" s="1"/>
     </row>
     <row r="22" spans="2:22">
-      <c r="B22" s="1"/>
+      <c r="B22" s="44"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="H22" s="44"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -10817,13 +10849,13 @@
       <c r="V22" s="1"/>
     </row>
     <row r="23" spans="2:22">
-      <c r="B23" s="1"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="H23" s="44"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -10840,13 +10872,13 @@
       <c r="V23" s="1"/>
     </row>
     <row r="24" spans="2:22">
-      <c r="B24" s="1"/>
+      <c r="B24" s="44"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="H24" s="44"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -10863,13 +10895,13 @@
       <c r="V24" s="1"/>
     </row>
     <row r="25" spans="2:22">
-      <c r="B25" s="1"/>
+      <c r="B25" s="44"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="H25" s="44"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -10886,13 +10918,13 @@
       <c r="V25" s="1"/>
     </row>
     <row r="26" spans="2:22">
-      <c r="B26" s="1"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="H26" s="44"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -10909,13 +10941,13 @@
       <c r="V26" s="1"/>
     </row>
     <row r="27" spans="2:22">
-      <c r="B27" s="1"/>
+      <c r="B27" s="44"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="H27" s="44"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -10932,13 +10964,13 @@
       <c r="V27" s="1"/>
     </row>
     <row r="28" spans="2:22">
-      <c r="B28" s="1"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="H28" s="44"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -10955,13 +10987,13 @@
       <c r="V28" s="1"/>
     </row>
     <row r="29" spans="2:22">
-      <c r="B29" s="1"/>
+      <c r="B29" s="44"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="H29" s="44"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -10978,13 +11010,13 @@
       <c r="V29" s="1"/>
     </row>
     <row r="30" spans="2:22">
-      <c r="B30" s="1"/>
+      <c r="B30" s="44"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="H30" s="44"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -11001,13 +11033,13 @@
       <c r="V30" s="1"/>
     </row>
     <row r="31" spans="2:22">
-      <c r="B31" s="1"/>
+      <c r="B31" s="44"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="H31" s="44"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -11024,13 +11056,13 @@
       <c r="V31" s="1"/>
     </row>
     <row r="32" spans="2:22">
-      <c r="B32" s="1"/>
+      <c r="B32" s="44"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="H32" s="44"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -11047,13 +11079,13 @@
       <c r="V32" s="1"/>
     </row>
     <row r="33" spans="2:22">
-      <c r="B33" s="1"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
+      <c r="H33" s="44"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -11070,13 +11102,13 @@
       <c r="V33" s="1"/>
     </row>
     <row r="34" spans="2:22">
-      <c r="B34" s="1"/>
+      <c r="B34" s="44"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+      <c r="H34" s="44"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -11093,13 +11125,13 @@
       <c r="V34" s="1"/>
     </row>
     <row r="35" spans="2:22">
-      <c r="B35" s="1"/>
+      <c r="B35" s="44"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
+      <c r="H35" s="44"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -11116,13 +11148,13 @@
       <c r="V35" s="1"/>
     </row>
     <row r="36" spans="2:22">
-      <c r="B36" s="1"/>
+      <c r="B36" s="44"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="H36" s="44"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -11139,13 +11171,13 @@
       <c r="V36" s="1"/>
     </row>
     <row r="37" spans="2:22">
-      <c r="B37" s="1"/>
+      <c r="B37" s="44"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+      <c r="H37" s="44"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -11162,13 +11194,13 @@
       <c r="V37" s="1"/>
     </row>
     <row r="38" spans="2:22">
-      <c r="B38" s="1"/>
+      <c r="B38" s="44"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
+      <c r="H38" s="44"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -11185,13 +11217,13 @@
       <c r="V38" s="1"/>
     </row>
     <row r="39" spans="2:22">
-      <c r="B39" s="1"/>
+      <c r="B39" s="44"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
+      <c r="H39" s="44"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -11208,13 +11240,13 @@
       <c r="V39" s="1"/>
     </row>
     <row r="40" spans="2:22">
-      <c r="B40" s="1"/>
+      <c r="B40" s="44"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
+      <c r="H40" s="44"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -11231,13 +11263,13 @@
       <c r="V40" s="1"/>
     </row>
     <row r="41" spans="2:22">
-      <c r="B41" s="1"/>
+      <c r="B41" s="44"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
+      <c r="H41" s="44"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -11254,13 +11286,13 @@
       <c r="V41" s="1"/>
     </row>
     <row r="42" spans="2:22">
-      <c r="B42" s="1"/>
+      <c r="B42" s="44"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
+      <c r="H42" s="44"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -11277,13 +11309,13 @@
       <c r="V42" s="1"/>
     </row>
     <row r="43" spans="2:22">
-      <c r="B43" s="1"/>
+      <c r="B43" s="44"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
+      <c r="H43" s="44"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -11300,13 +11332,13 @@
       <c r="V43" s="1"/>
     </row>
     <row r="44" spans="2:22">
-      <c r="B44" s="1"/>
+      <c r="B44" s="44"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
+      <c r="H44" s="44"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -11323,13 +11355,13 @@
       <c r="V44" s="1"/>
     </row>
     <row r="45" spans="2:22">
-      <c r="B45" s="1"/>
+      <c r="B45" s="44"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
+      <c r="H45" s="44"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -11346,13 +11378,13 @@
       <c r="V45" s="1"/>
     </row>
     <row r="46" spans="2:22">
-      <c r="B46" s="1"/>
+      <c r="B46" s="44"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
+      <c r="H46" s="44"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -11369,13 +11401,13 @@
       <c r="V46" s="1"/>
     </row>
     <row r="47" spans="2:22">
-      <c r="B47" s="1"/>
+      <c r="B47" s="44"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
+      <c r="H47" s="44"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -11398,8 +11430,9 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H3" r:id="rId1" xr:uid="{90FE3D0A-B8B1-4C9D-8E9B-D9144E7EB971}"/>
-    <hyperlink ref="H5" r:id="rId2" xr:uid="{8EC427D5-2CA7-4CDF-9F77-B1DEFEBB8367}"/>
-    <hyperlink ref="H8" r:id="rId3" xr:uid="{D317A997-1216-4BF3-A77E-301A96DB4800}"/>
+    <hyperlink ref="H8" r:id="rId2" xr:uid="{D317A997-1216-4BF3-A77E-301A96DB4800}"/>
+    <hyperlink ref="H5" r:id="rId3" xr:uid="{6FB590DA-53B2-4A32-8B10-CAE0C461D9C1}"/>
+    <hyperlink ref="H6" r:id="rId4" xr:uid="{D9285151-6EF5-4462-9C71-A4B550A1CF05}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -11478,43 +11511,43 @@
   <sheetData>
     <row r="2" spans="2:14">
       <c r="B2" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>222</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>223</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>268</v>
+        <v>246</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="2:14">
@@ -11534,7 +11567,7 @@
         <v>62</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>61</v>
@@ -11543,25 +11576,25 @@
         <v>58</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="M3" s="26"/>
+      <c r="N3" s="27" t="s">
         <v>202</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="M3" s="29"/>
-      <c r="N3" s="30" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="28.8">
       <c r="B4" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>41</v>
@@ -11570,42 +11603,42 @@
         <v>42</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>65</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>63</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="M4" s="29" t="s">
-        <v>251</v>
-      </c>
-      <c r="N4" s="30" t="s">
-        <v>258</v>
+        <v>242</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="N4" s="27" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
@@ -11615,36 +11648,36 @@
         <v>48</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="M5" s="29" t="s">
-        <v>250</v>
-      </c>
-      <c r="N5" s="30" t="s">
-        <v>259</v>
+        <v>241</v>
+      </c>
+      <c r="M5" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="N5" s="27" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="28.8">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>39</v>
@@ -11652,24 +11685,24 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="M6" s="31"/>
-      <c r="N6" s="30" t="s">
-        <v>260</v>
+        <v>243</v>
+      </c>
+      <c r="M6" s="28"/>
+      <c r="N6" s="27" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="2:14">
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>46</v>
@@ -11677,42 +11710,42 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="M7" s="31"/>
-      <c r="N7" s="30" t="s">
-        <v>261</v>
+        <v>232</v>
+      </c>
+      <c r="M7" s="28"/>
+      <c r="N7" s="27" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="2:14">
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="I8" t="s">
         <v>234</v>
-      </c>
-      <c r="I8" t="s">
-        <v>235</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="M8" s="31"/>
-      <c r="N8" s="30" t="s">
-        <v>262</v>
+        <v>238</v>
+      </c>
+      <c r="M8" s="28"/>
+      <c r="N8" s="27" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="2:14">
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -11725,34 +11758,34 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="M9" s="31"/>
-      <c r="N9" s="30" t="s">
-        <v>263</v>
+        <v>239</v>
+      </c>
+      <c r="M9" s="28"/>
+      <c r="N9" s="27" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="2:14">
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="M10" s="31"/>
-      <c r="N10" s="30" t="s">
-        <v>264</v>
+        <v>240</v>
+      </c>
+      <c r="M10" s="28"/>
+      <c r="N10" s="27" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="2:14">
@@ -11769,11 +11802,11 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="M11" s="31"/>
-      <c r="N11" s="32" t="s">
-        <v>265</v>
+        <v>244</v>
+      </c>
+      <c r="M11" s="28"/>
+      <c r="N11" s="29" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="2:14">
@@ -11788,31 +11821,31 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="M12" s="31"/>
-      <c r="N12" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="M12" s="28"/>
+      <c r="N12" s="29" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="28.8">
+      <c r="M13" s="28"/>
+      <c r="N13" s="27" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="28.8">
-      <c r="M13" s="31"/>
-      <c r="N13" s="30" t="s">
-        <v>267</v>
-      </c>
-    </row>
     <row r="17" spans="12:22">
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="27"/>
-      <c r="V17" s="26"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11823,12 +11856,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49a8cebe-36ac-495c-bd9f-20670cd544f7">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="72dbc5bc-76fb-4acc-b863-4b866e8160ad" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12035,20 +12070,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49a8cebe-36ac-495c-bd9f-20670cd544f7">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="72dbc5bc-76fb-4acc-b863-4b866e8160ad" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9289C00-7C96-4A67-8815-937B2114DC1E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED5A27CE-91D1-4321-9DE6-622E399F7010}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="72dbc5bc-76fb-4acc-b863-4b866e8160ad"/>
+    <ds:schemaRef ds:uri="49a8cebe-36ac-495c-bd9f-20670cd544f7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12073,18 +12115,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED5A27CE-91D1-4321-9DE6-622E399F7010}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9289C00-7C96-4A67-8815-937B2114DC1E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="72dbc5bc-76fb-4acc-b863-4b866e8160ad"/>
-    <ds:schemaRef ds:uri="49a8cebe-36ac-495c-bd9f-20670cd544f7"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>